--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B9B644-B0CF-4117-84C2-079E8630F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="10250" yWindow="1680" windowWidth="24990" windowHeight="11750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,24 +547,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,7 +597,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -619,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -642,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -665,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -688,7 +689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>202</v>
       </c>
@@ -711,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>302</v>
       </c>
@@ -734,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -757,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>203</v>
       </c>
@@ -780,7 +781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>303</v>
       </c>
@@ -803,18 +804,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,19 +824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="8" width="21" customWidth="1"/>
     <col min="9" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +870,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -895,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -905,7 +906,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -913,7 +914,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -921,7 +922,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -929,7 +930,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -937,7 +938,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -945,7 +946,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -953,7 +954,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -961,7 +962,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,20 +970,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -993,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1026,27 +1027,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B9B644-B0CF-4117-84C2-079E8630F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10250" yWindow="1680" windowWidth="24990" windowHeight="11750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
     <sheet name="BuffDesign" sheetId="2" r:id="rId2"/>
     <sheet name="LeveBuff" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,23 +161,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5;6;9;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5;3;5;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6;8;5;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SevereWinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windrider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inferno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldRush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderstrike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalRise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;6;7;8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +242,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -249,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +327,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,24 +616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,7 +666,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -620,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -643,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -666,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -689,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>202</v>
       </c>
@@ -712,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>302</v>
       </c>
@@ -735,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -758,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>203</v>
       </c>
@@ -781,7 +850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>303</v>
       </c>
@@ -804,18 +873,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,19 +893,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="8" width="21" customWidth="1"/>
-    <col min="9" max="11" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="9" width="21" customWidth="1"/>
+    <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,33 +915,36 @@
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="2"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -884,85 +958,234 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -970,20 +1193,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -994,7 +1217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1005,7 +1228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1013,43 +1236,104 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC57FF-243C-4774-8301-697A2C023694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745" activeTab="2"/>
+    <workbookView xWindow="10250" yWindow="1680" windowWidth="24990" windowHeight="11750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -228,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,24 +617,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +667,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -689,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -712,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -735,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -758,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>202</v>
       </c>
@@ -781,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>302</v>
       </c>
@@ -804,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -827,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>203</v>
       </c>
@@ -850,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>303</v>
       </c>
@@ -873,18 +874,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -893,21 +894,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,7 +945,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -973,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1185,7 +1186,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1193,20 +1194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1250,27 +1251,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,20 +1279,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC57FF-243C-4774-8301-697A2C023694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5942016E-223E-4721-AE6F-19146960073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10250" yWindow="1680" windowWidth="24990" windowHeight="11750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10250" yWindow="1680" windowWidth="24990" windowHeight="11750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
     <sheet name="BuffDesign" sheetId="2" r:id="rId2"/>
     <sheet name="LeveBuff" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="RoleDesign" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1279,6 +1280,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92DEE50-4EDE-4E0E-AC48-06AA2547C8C6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5942016E-223E-4721-AE6F-19146960073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10250" yWindow="1680" windowWidth="24990" windowHeight="11750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,118 +118,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(com)Penetration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(spe)Interest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffProbabilitys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;3;5;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3;7;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;3;5;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;8;5;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SevereWinter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windrider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inferno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldRush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderstrike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalRise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;6;7;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(spe)StandbyAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquarius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiet and peaceful, cute and adorable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZodiacSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(com)Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(com)ElementalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(com)ElementalValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(com)Penetration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(spe)Interest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(spe)StandbyAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffProbabilitys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;3;5;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;3;7;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;3;5;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;8;5;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SevereWinter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windrider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inferno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletSync</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldRush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunderstrike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementalRise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;6;7;8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,24 +705,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +755,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -691,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -714,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -737,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -760,7 +847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>202</v>
       </c>
@@ -783,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>302</v>
       </c>
@@ -806,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -829,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>203</v>
       </c>
@@ -852,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>303</v>
       </c>
@@ -875,18 +962,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -895,21 +982,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,25 +1004,25 @@
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -946,7 +1033,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -975,12 +1062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1004,12 +1091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1033,12 +1120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1062,12 +1149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -1091,12 +1178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1120,12 +1207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1149,12 +1236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -1178,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1187,7 +1274,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,84 +1282,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1280,152 +1367,283 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92DEE50-4EDE-4E0E-AC48-06AA2547C8C6}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82624E04-F5AB-49C8-A4BB-D385390433CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1680" windowWidth="24990" windowHeight="11745" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
     <sheet name="BuffDesign" sheetId="2" r:id="rId2"/>
     <sheet name="LeveBuff" sheetId="3" r:id="rId3"/>
     <sheet name="RoleDesign" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="PREventDesign" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,13 +313,60 @@
   </si>
   <si>
     <t>(com)ElementalValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clay reinforcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05;0.05;0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three phase force</t>
+  </si>
+  <si>
+    <t>Increase the probability of clay, ice and fire.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increased probability of clay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddPRBulletID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubPRBulletID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,24 +754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,7 +804,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -778,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -801,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -824,7 +873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -847,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>202</v>
       </c>
@@ -870,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>302</v>
       </c>
@@ -893,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -916,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>203</v>
       </c>
@@ -939,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>303</v>
       </c>
@@ -962,18 +1011,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,21 +1031,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1082,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1062,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1091,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1120,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1149,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1178,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1207,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1236,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1265,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1274,7 +1323,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,20 +1331,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1306,7 +1355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1317,7 +1366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1328,7 +1377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1339,27 +1388,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,21 +1416,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="4" width="16.58203125" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="46.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1421,7 +1470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1441,7 +1490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1461,7 +1510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1481,7 +1530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1501,7 +1550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1521,7 +1570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1541,7 +1590,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1561,7 +1610,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1569,7 +1618,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1577,7 +1626,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1593,20 +1642,114 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B567A581-3B53-467E-9E8E-2E84BA1D94B7}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1614,7 +1757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1622,7 +1765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1630,7 +1773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1638,7 +1781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82624E04-F5AB-49C8-A4BB-D385390433CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274E2B85-F6AD-4F36-8A58-B46421B17767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="LeveBuff" sheetId="3" r:id="rId3"/>
     <sheet name="RoleDesign" sheetId="5" r:id="rId4"/>
     <sheet name="PREventDesign" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="BulletEntry" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +361,72 @@
   </si>
   <si>
     <t>SubPRBulletID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰火共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土黏土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More Clay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice Fire Resonance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的弹匣里全是黏土子弹，则黏土子弹伤害 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If your magazine is full of clay bullets, gain +1 clay bullet damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰+火或者火+冰，会造成总额2倍的爆炸伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice + Fire or Fire + Ice, dealing 2 times the total explosion damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特立独行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maverick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的弹匣中，同类子弹只有一个，则每颗子弹伤害+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you have only one bullet of the same type in your magazine, gain +5 damage per bullet</t>
+  </si>
+  <si>
+    <t>Clay Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的弹匣中，有二星黏土子弹，则黏土子弹伤害 + 3，有三星黏土子弹，则黏土子弹伤害 + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you have a two-star clay bullet in your magazine, the clay bullet damage is +3, and if you have a three-star clay bullet, the clay bullet damage is +10</t>
+  </si>
+  <si>
+    <t>黏土大师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +541,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1645,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B567A581-3B53-467E-9E8E-2E84BA1D94B7}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1736,6 +1806,114 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1062D7-A579-4861-9F18-D1C9CA406A7D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.9140625" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.9140625" customWidth="1"/>
+    <col min="4" max="4" width="38.08203125" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274E2B85-F6AD-4F36-8A58-B46421B17767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB7530-884E-48C0-B218-E77241D68C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -968,7 +968,7 @@
     </row>
     <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
@@ -1809,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1062D7-A579-4861-9F18-D1C9CA406A7D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB7530-884E-48C0-B218-E77241D68C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17144E0C-198D-4CE8-8360-3E39DA1D8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="RoleDesign" sheetId="5" r:id="rId4"/>
     <sheet name="PREventDesign" sheetId="6" r:id="rId5"/>
     <sheet name="BulletEntry" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="ItemDesign" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +428,26 @@
   </si>
   <si>
     <t>黏土大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易拉罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶搋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Can_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_ToiletPlunger_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,21 +848,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +895,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -897,7 +918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -920,7 +941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -943,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -966,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>102</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>202</v>
       </c>
@@ -1012,7 +1033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1058,7 +1079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>203</v>
       </c>
@@ -1081,18 +1102,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1108,14 +1129,14 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1173,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1181,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1239,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1268,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1297,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1355,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1384,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1393,7 +1414,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1408,13 +1429,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1458,27 +1479,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,14 +1514,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16.58203125" customWidth="1"/>
+    <col min="1" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="46.08203125" customWidth="1"/>
+    <col min="6" max="6" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1540,7 +1561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1600,7 +1621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1640,7 +1661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1660,7 +1681,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1680,7 +1701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1688,7 +1709,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1696,7 +1717,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1719,13 +1740,13 @@
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1794,7 +1815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>78</v>
       </c>
@@ -1813,16 +1834,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.9140625" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.9140625" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1856,7 +1877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1873,7 +1894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1890,7 +1911,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1914,6 +1935,71 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1921,13 +2007,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1935,7 +2021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1943,7 +2029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1951,7 +2037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1959,7 +2045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17144E0C-198D-4CE8-8360-3E39DA1D8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1279A16E-0B7F-432C-B0F1-FD300A9D0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1665" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,42 @@
   </si>
   <si>
     <t>T_Item_ToiletPlunger_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈菜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折断魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小块秘银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大伤害（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1936,19 +1972,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="1" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1959,10 +1995,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1972,11 +2026,21 @@
       <c r="C2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1986,12 +2050,96 @@
       <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>50</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>150</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>300</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1279A16E-0B7F-432C-B0F1-FD300A9D0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A606B6D-9008-421D-896C-0FACEC6B0445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1665" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,26 @@
   </si>
   <si>
     <t>最大伤害（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外水伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外火伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外雷伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外光伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外暗伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,17 +908,17 @@
       <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -931,7 +951,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -954,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -977,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -1000,7 +1020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1023,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>102</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>202</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1115,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>203</v>
       </c>
@@ -1138,18 +1158,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,14 +1185,14 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1229,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1238,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1267,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1296,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1354,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1441,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1450,7 +1470,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,13 +1485,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1482,7 +1502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1493,7 +1513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1504,7 +1524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1515,27 +1535,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,14 +1570,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="4" width="16.58203125" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="46.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1597,7 +1617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1617,7 +1637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1637,7 +1657,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1657,7 +1677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1677,7 +1697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1697,7 +1717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1717,7 +1737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1737,7 +1757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1745,7 +1765,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1753,7 +1773,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1776,13 +1796,13 @@
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="51.375" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1828,7 +1848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1851,7 +1871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
         <v>78</v>
       </c>
@@ -1870,16 +1890,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.08203125" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +1916,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1913,7 +1933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1930,7 +1950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1947,7 +1967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1972,19 +1992,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="1" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2010,13 +2030,28 @@
         <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2033,14 +2068,21 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>50</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2058,13 +2100,20 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4">
-        <v>50</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2081,14 +2130,21 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>50</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2108,13 +2164,24 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4">
-        <v>150</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>100</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2133,10 +2200,19 @@
       <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
+        <v>200</v>
+      </c>
+      <c r="M6" s="4">
+        <v>200</v>
+      </c>
+      <c r="N6" s="4">
         <v>300</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2155,13 +2231,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2169,7 +2245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2177,7 +2253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2185,7 +2261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2193,7 +2269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A606B6D-9008-421D-896C-0FACEC6B0445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F63E3D-E331-4BE8-B141-3034783CACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,10 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Item_ToiletPlunger_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +500,30 @@
   </si>
   <si>
     <t>额外暗伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Mithril _01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_BreakWand_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_KitchenKnife_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_ToiletPlunger_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦迪的元素壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Pot_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1992,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2015,37 +2035,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>102</v>
@@ -2110,7 +2130,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2121,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2141,7 +2161,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2178,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2189,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2213,7 +2233,44 @@
         <v>300</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>600</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F63E3D-E331-4BE8-B141-3034783CACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A670254-1DA1-4409-8EA8-F988F6A85758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="PREventDesign" sheetId="6" r:id="rId5"/>
     <sheet name="BulletEntry" sheetId="7" r:id="rId6"/>
     <sheet name="ItemDesign" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="GemDesign" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +525,42 @@
   </si>
   <si>
     <t>T_Item_Pot_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Piercing_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Resonance_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Damage_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,17 +965,17 @@
       <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1008,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -994,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -1017,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -1040,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1063,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>102</v>
       </c>
@@ -1086,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>202</v>
       </c>
@@ -1109,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1132,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1155,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>203</v>
       </c>
@@ -1178,18 +1215,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,14 +1242,14 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1286,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1278,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1307,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1336,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1365,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1394,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1423,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1452,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1481,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1490,7 +1527,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1505,13 +1542,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1522,7 +1559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1533,7 +1570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1544,7 +1581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1555,27 +1592,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1590,14 +1627,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16.58203125" customWidth="1"/>
+    <col min="1" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="46.08203125" customWidth="1"/>
+    <col min="6" max="6" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1637,7 +1674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1657,7 +1694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1677,7 +1714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1697,7 +1734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1717,7 +1754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1737,7 +1774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1757,7 +1794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1777,7 +1814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1785,7 +1822,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1793,7 +1830,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1816,13 +1853,13 @@
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1868,7 +1905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1891,7 +1928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>78</v>
       </c>
@@ -1910,16 +1947,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1953,7 +1990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1970,7 +2007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1987,7 +2024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2014,17 +2051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2102,7 +2139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2133,7 +2170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2164,7 +2201,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2201,7 +2238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2236,7 +2273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2281,6 +2318,95 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2288,13 +2414,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2310,7 +2436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2318,7 +2444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2326,7 +2452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A670254-1DA1-4409-8EA8-F988F6A85758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE53372-85F3-4561-9105-42754EE3EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -965,17 +965,17 @@
       <selection activeCell="A5" sqref="A5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>102</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>202</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>203</v>
       </c>
@@ -1215,18 +1215,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1242,14 +1242,14 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="9" width="21" customWidth="1"/>
     <col min="10" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1527,7 +1527,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,13 +1542,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1592,27 +1592,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,14 +1627,14 @@
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="4" width="16.58203125" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="46.125" customWidth="1"/>
+    <col min="6" max="6" width="46.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1822,7 +1822,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1830,7 +1830,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1853,13 +1853,13 @@
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="51.375" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
         <v>78</v>
       </c>
@@ -1947,16 +1947,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="38.125" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.08203125" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2055,13 +2055,13 @@
       <selection activeCell="O1" sqref="O1:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2322,16 +2322,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="1" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -2414,13 +2414,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE53372-85F3-4561-9105-42754EE3EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9F974-0AD1-475E-8D21-DB1DDD92B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2410,7 +2410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMLGame\MLGame\Boom\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB9F974-0AD1-475E-8D21-DB1DDD92B9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB84E0E-00FD-47B8-966A-D85377CE4DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,18 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共振宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,6 +549,70 @@
   </si>
   <si>
     <t>T_Gem_Damage_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害宝石+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透宝石+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振宝石+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害宝石+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Damage_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害宝石+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Damage_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透宝石+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Piercing_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透宝石+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Piercing_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振宝石+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振宝石+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Resonance_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Gem_Resonance_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +645,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2319,19 +2380,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="1" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2339,64 +2400,190 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>131</v>
+      <c r="G9" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB84E0E-00FD-47B8-966A-D85377CE4DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289941FE-762E-4F3D-8BC6-D524E5BF54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -59,22 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FX_Bullet01_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ice01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,6 +601,18 @@
   </si>
   <si>
     <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬质子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石子弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,21 +1022,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="1" max="7" width="22.4140625" style="1" customWidth="1"/>
     <col min="8" max="13" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1069,7 +1065,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1077,22 +1073,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -1100,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1112,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>201</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -1135,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
@@ -1158,10 +1154,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>102</v>
       </c>
@@ -1169,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
@@ -1181,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>202</v>
       </c>
@@ -1192,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5">
         <v>6</v>
@@ -1204,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1215,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1227,10 +1223,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>103</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1250,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>203</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -1273,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1315,28 +1311,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1352,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1381,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1410,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1439,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1468,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -1497,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1526,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1555,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -1611,13 +1607,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1625,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1636,10 +1632,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1647,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1700,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,16 +1719,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1743,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1763,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1803,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1843,16 +1839,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1925,22 +1921,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,27 +1967,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2025,13 +2021,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
@@ -2039,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
@@ -2056,16 +2052,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,16 +2069,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
@@ -2090,16 +2086,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2127,46 +2123,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2177,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
@@ -2197,7 +2193,7 @@
         <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2228,7 +2224,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2239,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2259,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2296,7 +2292,7 @@
         <v>100</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2307,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2331,7 +2327,7 @@
         <v>300</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2342,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="4">
         <v>16</v>
@@ -2368,7 +2364,7 @@
         <v>600</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2400,19 +2396,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2420,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2431,7 +2427,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2450,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2469,7 +2465,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2477,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10">
@@ -2488,7 +2484,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10">
@@ -2507,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2515,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10">
@@ -2526,7 +2522,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2534,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2545,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2564,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2572,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2583,7 +2579,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2609,10 +2605,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2620,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2636,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2644,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289941FE-762E-4F3D-8BC6-D524E5BF54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2374BB-50FB-488C-BE7A-451FCE5F3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,58 +540,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害宝石+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透宝石+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共振宝石+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害宝石+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Damage_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害宝石+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Damage_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿透宝石+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Piercing_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>穿透宝石+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Piercing_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共振宝石+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共振宝石+3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Resonance_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,6 +577,18 @@
   </si>
   <si>
     <t>黑曜石子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1073,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1096,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1119,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -2376,19 +2352,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="1" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2396,190 +2372,220 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>100</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+        <v>138</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+        <v>138</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10">
+        <v>138</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>141</v>
+      <c r="H10" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2374BB-50FB-488C-BE7A-451FCE5F3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CF69-3E56-48A1-9D73-7AAF6BC72084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="BulletEntry" sheetId="7" r:id="rId6"/>
     <sheet name="ItemDesign" sheetId="8" r:id="rId7"/>
     <sheet name="GemDesign" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
+    <sheet name="任务设计" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,13 +591,45 @@
   <si>
     <t>共振宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法基础补考</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身为吊车尾，你成功延迟毕业了。教授气得胡子都歪了，当场把饥肠辘辘的你扔进了法师塔。赶快掌握点基本魔法，不然今晚的晚餐可能就只有你自己了！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透学实践</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>「什么？居然还有人分不清穿透咒和穿孔咒？」教授扶了扶额头，叹了口气，又将你毫不留情地推入了下一层塔楼。好吧，实践出真知，祝你好运！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +651,28 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -682,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +770,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,6 +1331,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q11"/>
@@ -2354,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2596,62 +2721,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="1" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="68.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E64CF69-3E56-48A1-9D73-7AAF6BC72084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA8D87-F34E-43F0-B010-AFADD0A9BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
     <sheet name="BuffDesign" sheetId="2" r:id="rId2"/>
-    <sheet name="LeveBuff" sheetId="3" r:id="rId3"/>
-    <sheet name="RoleDesign" sheetId="5" r:id="rId4"/>
-    <sheet name="PREventDesign" sheetId="6" r:id="rId5"/>
-    <sheet name="BulletEntry" sheetId="7" r:id="rId6"/>
-    <sheet name="ItemDesign" sheetId="8" r:id="rId7"/>
-    <sheet name="GemDesign" sheetId="9" r:id="rId8"/>
-    <sheet name="任务设计" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
+    <sheet name="ItemDesign" sheetId="8" r:id="rId3"/>
+    <sheet name="GemDesign" sheetId="9" r:id="rId4"/>
+    <sheet name="任务设计" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,38 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffProbabilitys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10;3;5;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;3;7;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5;3;5;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;8;5;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,98 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5;6;7;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(spe)StandbyAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MBTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aquarius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quiet and peaceful, cute and adorable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZodiacSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INFP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gemini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESTJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Libra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(com)Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,119 +181,6 @@
   </si>
   <si>
     <t>(com)ElementalValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clay reinforcement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05;0.05;0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three phase force</t>
-  </si>
-  <si>
-    <t>Increase the probability of clay, ice and fire.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increased probability of clay.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddPRBulletID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubPRBulletID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰火共振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黏土黏土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>More Clay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice Fire Resonance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你的弹匣里全是黏土子弹，则黏土子弹伤害 + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If your magazine is full of clay bullets, gain +1 clay bullet damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰+火或者火+冰，会造成总额2倍的爆炸伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice + Fire or Fire + Ice, dealing 2 times the total explosion damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特立独行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maverick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你的弹匣中，同类子弹只有一个，则每颗子弹伤害+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you have only one bullet of the same type in your magazine, gain +5 damage per bullet</t>
-  </si>
-  <si>
-    <t>Clay Skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你的弹匣中，有二星黏土子弹，则黏土子弹伤害 + 3，有三星黏土子弹，则黏土子弹伤害 + 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you have a two-star clay bullet in your magazine, the clay bullet damage is +3, and if you have a three-star clay bullet, the clay bullet damage is +10</t>
-  </si>
-  <si>
-    <t>黏土大师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1113,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1136,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1159,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -1324,67 +1084,6 @@
     <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1415,16 +1114,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -1433,7 +1132,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1478,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1507,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1536,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1565,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -1594,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1623,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -1652,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
@@ -1693,519 +1392,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="3" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="46.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B567A581-3B53-467E-9E8E-2E84BA1D94B7}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1062D7-A579-4861-9F18-D1C9CA406A7D}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38.08203125" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -2224,46 +1410,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
@@ -2294,7 +1480,7 @@
         <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -2325,7 +1511,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2336,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2356,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2367,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2393,7 +1579,7 @@
         <v>100</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2404,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2428,7 +1614,7 @@
         <v>300</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4">
         <v>16</v>
@@ -2465,7 +1651,7 @@
         <v>600</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +1661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2500,19 +1686,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2520,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2534,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2542,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2556,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2564,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2578,73 +1764,73 @@
         <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="B5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>124</v>
+      <c r="H5" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="B6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
         <v>20</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>129</v>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="B7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
         <v>100</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>130</v>
+      <c r="H7" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2652,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -2666,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2674,7 +1860,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -2688,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2696,7 +1882,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -2710,7 +1896,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2720,12 +1906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2735,49 +1921,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>143</v>
+      <c r="A1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>145</v>
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>147</v>
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA8D87-F34E-43F0-B010-AFADD0A9BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519506EC-5380-4213-8ADB-A1DAFE458583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -1665,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1717,7 +1717,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>67</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>65</v>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>66</v>
@@ -1910,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519506EC-5380-4213-8ADB-A1DAFE458583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBFDF2E-C207-435B-8C4D-0A53A3182DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -1665,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBFDF2E-C207-435B-8C4D-0A53A3182DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F7843-F2A5-4FF9-AE1A-E603FD242EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,63 @@
   <si>
     <t>「什么？居然还有人分不清穿透咒和穿孔咒？」教授扶了扶额头，叹了口气，又将你毫不留情地推入了下一层塔楼。好吧，实践出真知，祝你好运！</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振螺旋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔物精研</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会动的铠甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头怪思想研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑巫师之谜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极法师塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障修理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>「别小看那些长着翅膀、吐着火球的小家伙，它们可能比你还聪明」 教授狡猾地一笑，把你扔进满是各种魔物的房间。研究研究再说吧，顺便别被吃了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授郑重地告诉你：“共振可不是简单的魔法，弄不好会炸到天上去。”话音刚落，门就锁上了。看来你只能乖乖学会这复杂的共振机制，否则今晚就要体验免费太空旅行了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师塔的机关出了点「小问题」，具体就是炸了好几层楼。教授满脸无辜地递给你工具箱「麻烦你去修修看，顺便活着回来，我还有些资料没整理完呢。」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铠甲本来不会动，现在却举着大剑追着你满地跑。教授在远处高喊「不要害怕，只要你能搞清楚让它们动起来的原因，就……应该没事吧？」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授递给你一本厚厚的书，书名是《双头怪的自我矛盾与内心挣扎》。你觉得头有点晕，因为你面前的怪物正用两张嘴同时和自己吵架。这次，你可能要充当调停员了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院中传说有个黑巫师藏在塔的深处，教授低声警告：“他可是个危险的角色，专门骗走学生的考试成绩。”你猛地一惊，成绩被偷可不行，赶紧去揭开真相吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">终于到了教授口中那个“非去不可，但去了可能回不来”的地方。这个传说中的终极法师塔，据说由古代最强大的法师建造。深吸一口气吧，教授正在门口冲你微笑挥手，仿佛在说：「祝你好运，我会怀念你的。」
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +524,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8BEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8BEC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEACAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB99696"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,12 +621,50 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9899BE"/>
+      <color rgb="FFB99696"/>
+      <color rgb="FFBEACAC"/>
+      <color rgb="FFCC0000"/>
+      <color rgb="FFC8BEC8"/>
+      <color rgb="FFE8D2E8"/>
+      <color rgb="FFC8BEBE"/>
+      <color rgb="FFEEE6DE"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1908,16 +2027,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="82.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
@@ -1960,6 +2079,104 @@
       </c>
       <c r="D3" s="12" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>100</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>150</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>200</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933F7843-F2A5-4FF9-AE1A-E603FD242EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F7B8D-791A-4ECB-B938-FF3B9DE002D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="ItemDesign" sheetId="8" r:id="rId3"/>
     <sheet name="GemDesign" sheetId="9" r:id="rId4"/>
     <sheet name="任务设计" sheetId="10" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="天赋设计" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +444,70 @@
     <t xml:space="preserve">终于到了教授口中那个“非去不可，但去了可能回不来”的地方。这个传说中的终极法师塔，据说由古代最强大的法师建造。深吸一口气吧，教授正在门口冲你微笑挥手，仿佛在说：「祝你好运，我会怀念你的。」
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽位+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位依赖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位解锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带共振+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带伤害+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带穿透+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔尘消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带黏土+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带钥匙+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3;4;5;6;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬币数量+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级共振+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级伤害+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级穿透+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +616,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -581,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +720,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2029,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2186,6 +2275,248 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="3" width="38.25" customWidth="1"/>
+    <col min="4" max="4" width="33.9140625" customWidth="1"/>
+    <col min="5" max="6" width="32.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F7B8D-791A-4ECB-B938-FF3B9DE002D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB360017-2DCA-498C-8B52-544CE76DAB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,12 +502,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2级穿透+1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级伤害+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级穿透+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级共振+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;12;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级伤害+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级共振+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级穿透+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带等级+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18;19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇宝石“倍化”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇宝石“无限”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇宝石“分裂”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分转化+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;9;25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏土升级-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币转化+1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26;27;28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;27;26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentEffectType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockBulletSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarryRoomKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarryGem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarryBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GemBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受影响的ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletResBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockGem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarryGemLevelBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,7 +717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +784,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8D2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -658,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +902,18 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -742,12 +922,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE8D2E8"/>
       <color rgb="FF9899BE"/>
       <color rgb="FFB99696"/>
       <color rgb="FFBEACAC"/>
       <color rgb="FFCC0000"/>
       <color rgb="FFC8BEC8"/>
-      <color rgb="FFE8D2E8"/>
       <color rgb="FFC8BEBE"/>
       <color rgb="FFEEE6DE"/>
       <color rgb="FFFFCCCC"/>
@@ -2276,21 +2456,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="3" width="38.25" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="23.4140625" customWidth="1"/>
     <col min="4" max="4" width="33.9140625" customWidth="1"/>
     <col min="5" max="6" width="32.4140625" customWidth="1"/>
+    <col min="7" max="9" width="24.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
@@ -2309,28 +2491,46 @@
       <c r="F1" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="G1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="25">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="26">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="26">
+        <v>2</v>
+      </c>
+      <c r="I2" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2344,13 +2544,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F3" s="12">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2369,8 +2578,17 @@
       <c r="F4" s="12">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2389,8 +2607,17 @@
       <c r="F5" s="12">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="12">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -2404,13 +2631,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="22">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6" s="22">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -2423,14 +2659,23 @@
       <c r="D7" s="24">
         <v>1</v>
       </c>
-      <c r="E7" s="24">
-        <v>0</v>
+      <c r="E7" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="F7" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>7</v>
       </c>
@@ -2444,13 +2689,22 @@
         <v>1</v>
       </c>
       <c r="E8" s="24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" s="24">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2464,13 +2718,22 @@
         <v>2</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12">
         <v>1500</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="12">
+        <v>21</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2483,19 +2746,28 @@
       <c r="D10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="12">
-        <v>0</v>
+      <c r="E10" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="12">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2503,11 +2775,542 @@
       <c r="D11" s="12">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
-        <v>0</v>
+      <c r="E11" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="F11" s="12">
         <v>1500</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="12">
+        <v>11</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12">
+        <v>17</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="12">
+        <v>12</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="12">
+        <v>15</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="12">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3</v>
+      </c>
+      <c r="I15" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>13</v>
+      </c>
+      <c r="E16" s="12">
+        <v>18</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3500</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>14</v>
+      </c>
+      <c r="E17" s="12">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="12">
+        <v>10</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="12">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="12">
+        <v>20</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="12">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="12">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12">
+        <v>23</v>
+      </c>
+      <c r="F20" s="12">
+        <v>4500</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="12">
+        <v>12</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="12">
+        <v>24</v>
+      </c>
+      <c r="F21" s="12">
+        <v>4500</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="12">
+        <v>22</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="26">
+        <v>5500</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="26">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="27">
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <v>18</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <v>8000</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="28">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="27">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <v>8000</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="28">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="27">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
+        <v>8000</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="28">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>500</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="22">
+        <v>28</v>
+      </c>
+      <c r="F27" s="22">
+        <v>500</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>6</v>
+      </c>
+      <c r="E28" s="24">
+        <v>28</v>
+      </c>
+      <c r="F28" s="24">
+        <v>500</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="24">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="25">
+        <v>2</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="26">
+        <v>4</v>
+      </c>
+      <c r="I29" s="26">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB360017-2DCA-498C-8B52-544CE76DAB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BEAB8-7842-48FD-9DC5-52C9259B443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2518,7 +2518,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="26">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>147</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BEAB8-7842-48FD-9DC5-52C9259B443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA988B-1E95-43A4-82C7-3573AA1246F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
-    <sheet name="BuffDesign" sheetId="2" r:id="rId2"/>
-    <sheet name="ItemDesign" sheetId="8" r:id="rId3"/>
-    <sheet name="GemDesign" sheetId="9" r:id="rId4"/>
-    <sheet name="任务设计" sheetId="10" r:id="rId5"/>
-    <sheet name="天赋设计" sheetId="11" r:id="rId6"/>
+    <sheet name="ItemDesign" sheetId="8" r:id="rId2"/>
+    <sheet name="GemDesign" sheetId="9" r:id="rId3"/>
+    <sheet name="任务设计" sheetId="10" r:id="rId4"/>
+    <sheet name="天赋设计" sheetId="11" r:id="rId5"/>
+    <sheet name="道具设计" sheetId="12" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sharpness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Penetration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(com)Penetration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(spe)Interest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,50 +122,6 @@
   </si>
   <si>
     <t>雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SevereWinter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windrider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inferno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletSync</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldRush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunderstrike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementalRise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(spe)StandbyAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(com)Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(com)ElementalType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(com)ElementalValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -663,6 +603,138 @@
   </si>
   <si>
     <t>CarryGemLevelBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹩脚的魔术师帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Cap_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖叫陶罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本轮第一次击中敌人未能造成任何伤害，则后续1颗子弹伤害+2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你第一个子弹的伤害随机变化（1～6），发射前无法预知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏糊糊的巫师手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Glove_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕头转向的猫头鹰雕像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌人护盾随机增减1层（-1～+1），房间开启时立即生效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Statue_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽明忽暗的蜡烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的宝石若以『伤害-穿透-共振』顺序镶嵌，则该子弹所有宝石效果额外+1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Candle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小鬼的黄金钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门时50%几率额外赠送2硬币，50%几率扣除2硬币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Key_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写满错字的魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次进入宝箱房间时，可以免费重开一次宝箱，重开有更高的概率带来Debuff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹彩的魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若你的宝石镶嵌槽内每个宝石种类都不重复，所有宝石效果额外+1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_RainbowBook_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若子弹击穿护盾后，下一个发射的子弹伤害+3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏风的飞天扫帚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若你的子弹未击中任何护盾直接击中敌人本体，则该子弹伤害+1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Broom_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左脚的幸运靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间开始时随机一个子弹获得穿透+1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Boots_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自大的国王王冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若你仅镶嵌一种类型的宝石（全部为伤害、穿透或共振），则所有宝石效果额外+2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Crown_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_BadBook_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +789,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +868,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -826,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,9 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,6 +988,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1261,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1284,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1307,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -1480,306 +1561,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q11"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="9" width="21" customWidth="1"/>
-    <col min="10" max="12" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -1798,46 +1579,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1848,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
@@ -1868,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1879,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1899,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1910,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1930,7 +1711,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1941,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1967,7 +1748,7 @@
         <v>100</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1978,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2002,7 +1783,7 @@
         <v>300</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2013,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4">
         <v>16</v>
@@ -2039,7 +1820,7 @@
         <v>600</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2049,12 +1830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2074,19 +1855,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2108,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -2130,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2138,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -2152,73 +1933,73 @@
         <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>65</v>
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>70</v>
+      <c r="H6" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>100</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>71</v>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2226,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -2240,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2248,7 +2029,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -2262,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2051,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -2284,7 +2065,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2309,143 +2090,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>100</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>150</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>200</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>50</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>51</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>52</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>100</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="15">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>150</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="17">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>200</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="19">
-        <v>5</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2454,11 +2235,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2473,844 +2254,1107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="25">
+        <v>100</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="25">
+        <v>2</v>
+      </c>
+      <c r="I2" s="25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="11">
+        <v>500</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11">
+        <v>500</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="11">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11">
+        <v>500</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="11">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>26</v>
+      </c>
+      <c r="F6" s="21">
+        <v>500</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="23">
+        <v>500</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <v>25</v>
+      </c>
+      <c r="F8" s="23">
+        <v>500</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="11">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="11">
+        <v>11</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="11">
+        <v>3</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="11">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="11">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="E15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="25">
+        <v>3</v>
+      </c>
+      <c r="I15" s="25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>14</v>
+      </c>
+      <c r="E17" s="11">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="11">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="11">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="11">
+        <v>20</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11">
+        <v>23</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="11">
+        <v>12</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="11">
+        <v>24</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="11">
+        <v>22</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="25">
+        <v>5500</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="25">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="26">
+        <v>3</v>
+      </c>
+      <c r="D23" s="27">
+        <v>18</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>8000</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="26">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>8000</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="26">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <v>8000</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23">
+        <v>500</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="21">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21">
+        <v>500</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="21">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23">
+        <v>6</v>
+      </c>
+      <c r="E28" s="23">
+        <v>28</v>
+      </c>
+      <c r="F28" s="23">
+        <v>500</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="25">
+        <v>4</v>
+      </c>
+      <c r="I29" s="25">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.4140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="73.25" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="E4" s="4">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="25">
-        <v>2</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="26">
-        <v>100</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="26">
-        <v>2</v>
-      </c>
-      <c r="I2" s="26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="12">
-        <v>500</v>
-      </c>
-      <c r="G3" s="12" t="s">
+    <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="4">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="4">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="4">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>200</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="29">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="29">
+        <v>48</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>201</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="29">
+        <v>52</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>300</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12">
-        <v>500</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="12">
-        <v>10</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="D10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="5">
+        <v>87</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>401</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12">
-        <v>500</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="12">
-        <v>20</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22">
-        <v>26</v>
-      </c>
-      <c r="F6" s="22">
-        <v>500</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="24">
-        <v>500</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
-        <v>25</v>
-      </c>
-      <c r="F8" s="24">
-        <v>500</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>13</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1500</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="12">
-        <v>21</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1500</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="12">
-        <v>2</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="D11" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="28">
+        <v>152</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>402</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="28">
         <v>4</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="12">
-        <v>11</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12">
-        <v>2500</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2500</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="12">
-        <v>12</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="12">
-        <v>15</v>
-      </c>
-      <c r="F14" s="12">
-        <v>2500</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="12">
-        <v>22</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="25">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="26">
-        <v>2500</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="26">
-        <v>3</v>
-      </c>
-      <c r="I15" s="26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12">
-        <v>18</v>
-      </c>
-      <c r="F16" s="12">
-        <v>3500</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>14</v>
-      </c>
-      <c r="E17" s="12">
-        <v>18</v>
-      </c>
-      <c r="F17" s="12">
-        <v>3500</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="12">
-        <v>10</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="12">
-        <v>3500</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="12">
-        <v>20</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12">
-        <v>10</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="12">
-        <v>4500</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="12">
-        <v>3</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12">
-        <v>10</v>
-      </c>
-      <c r="E20" s="12">
-        <v>23</v>
-      </c>
-      <c r="F20" s="12">
-        <v>4500</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="12">
-        <v>12</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" s="12">
-        <v>24</v>
-      </c>
-      <c r="F21" s="12">
-        <v>4500</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="12">
-        <v>22</v>
-      </c>
-      <c r="I21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="25">
-        <v>2</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="26">
-        <v>5500</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="26">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="27">
-        <v>3</v>
-      </c>
-      <c r="D23" s="28">
-        <v>18</v>
-      </c>
-      <c r="E23" s="28">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28">
-        <v>8000</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="28">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="27">
-        <v>3</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28">
-        <v>8000</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="28">
-        <v>-1</v>
-      </c>
-      <c r="I24" s="28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="27">
-        <v>3</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="28">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28">
-        <v>8000</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="28">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="24">
-        <v>500</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="21">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="22">
-        <v>28</v>
-      </c>
-      <c r="F27" s="22">
-        <v>500</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="22">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="23">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>6</v>
-      </c>
-      <c r="E28" s="24">
-        <v>28</v>
-      </c>
-      <c r="F28" s="24">
-        <v>500</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="24">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="25">
-        <v>2</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <v>2500</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="26">
-        <v>4</v>
-      </c>
-      <c r="I29" s="26">
-        <v>-1</v>
+      <c r="D12" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="28">
+        <v>165</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3335,10 +3379,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3346,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3354,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3362,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3370,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA988B-1E95-43A4-82C7-3573AA1246F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF52105-540F-49FC-B24B-23E75078A5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="177">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,14 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若本轮第一次击中敌人未能造成任何伤害，则后续1颗子弹伤害+2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你第一个子弹的伤害随机变化（1～6），发射前无法预知。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黏糊糊的巫师手套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有敌人护盾随机增减1层（-1～+1），房间开启时立即生效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Statue_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,10 +642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的宝石若以『伤害-穿透-共振』顺序镶嵌，则该子弹所有宝石效果额外+1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Candle_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开门时50%几率额外赠送2硬币，50%几率扣除2硬币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Key_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,34 +658,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次进入宝箱房间时，可以免费重开一次宝箱，重开有更高的概率带来Debuff。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虹彩的魔法书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若你的宝石镶嵌槽内每个宝石种类都不重复，所有宝石效果额外+1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_RainbowBook_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若子弹击穿护盾后，下一个发射的子弹伤害+3。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漏风的飞天扫帚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若你的子弹未击中任何护盾直接击中敌人本体，则该子弹伤害+1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Broom_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,10 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间开始时随机一个子弹获得穿透+1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Boots_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,15 +686,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若你仅镶嵌一种类型的宝石（全部为伤害、穿透或共振），则所有宝石效果额外+2。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Crown_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T_Item_BadBook_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱房可免费重开一次，重开概率更高但可能带Debuff。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若本轮首次命中无伤害，下一颗子弹伤害#Red(+2)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹伤害随机#Red(1～6)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间开始时，敌方护盾随机#Blue(±1)#层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门时：50%得#Yellow(2)金币，50%失#Yellow(2)金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹跳过护盾命中敌人时，伤害#Red(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若宝石顺序为『伤害-穿透-共振』，则该子弹所有宝石效果#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局随机一颗子弹获得穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	击穿护盾后，下一发子弹伤害#Red(+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若每种宝石不重复，所有宝石效果#Blue(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若仅镶嵌一种类型宝石，所有宝石效果#Blue(+2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3105,7 +3109,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3125,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>144</v>
@@ -3148,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
@@ -3168,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
@@ -3182,19 +3186,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E4" s="4">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3202,19 +3206,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4">
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3222,19 +3226,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4">
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3242,19 +3246,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E7" s="4">
         <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3262,19 +3266,19 @@
         <v>200</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C8" s="29">
         <v>2</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E8" s="29">
         <v>48</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3282,19 +3286,19 @@
         <v>201</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E9" s="29">
         <v>52</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3302,19 +3306,19 @@
         <v>300</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E10" s="5">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3322,19 +3326,19 @@
         <v>401</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C11" s="28">
         <v>4</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E11" s="28">
         <v>152</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3342,19 +3346,19 @@
         <v>402</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C12" s="28">
         <v>4</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E12" s="28">
         <v>165</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF52105-540F-49FC-B24B-23E75078A5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD7C419-FD53-49D9-9D37-03E0C6F65F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="任务设计" sheetId="10" r:id="rId4"/>
     <sheet name="天赋设计" sheetId="11" r:id="rId5"/>
     <sheet name="道具设计" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="局外物品设计" sheetId="13" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,15 +731,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	击穿护盾后，下一发子弹伤害#Red(+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若每种宝石不重复，所有宝石效果#Blue(+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若仅镶嵌一种类型宝石，所有宝石效果#Blue(+2)</t>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的信件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一封署名为“教授”的信件，上面写着：“你准备好接受真正的试炼了吗？”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁新支线剧情 / 主线开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院的徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法学院初级学徒的徽章，象征着你的身份。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分 NPC 好感 / 特定对话开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微光的黑曜石碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散发微弱光芒的碎片，似乎可以嵌入某种遗迹中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观解谜 / 解锁新系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损的时间沙漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间似乎停滞在最后一刻，可用于研究“时间魔法”的材料之一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集 / 道具合成 / 解锁天赋线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇通行许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁新区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许你进入城镇中某些被封锁的区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光的金币（纪念币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已退出流通的金币，背面刻着“魔法的荣耀”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇特殊商人可交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代魔力水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代遗迹中提炼的魔力结晶，可能用于法阵或仪式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁被动加成 / 兑换稀有物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法课程笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	用潦草字迹写满了“变形术”与“时间延展”的内容，看不懂，却难以丢弃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁新技能/部分小游戏剧情触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特训授权书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授亲自盖章的特训许可，允许你挑战“魔法塔的隐藏层”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁挑战/Boss副本入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被遗忘的封印符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾用于封印某种强大力量的符文，依然残存微弱魔力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Crystal_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Letter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Badge_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Licence_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Note_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Seal_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Obsidian_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Hourglass_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Authorize_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_FlashCoins_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	击穿护盾后，下一发子弹伤害#Red(+3)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若每种宝石不重复，所有宝石效果#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若仅镶嵌一种类型宝石，所有宝石效果#Blue(+2)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1175,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3312,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E10" s="5">
         <v>87</v>
@@ -3332,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="E11" s="28">
         <v>152</v>
@@ -3352,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E12" s="28">
         <v>165</v>
@@ -3368,6 +3551,282 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="59.25" customWidth="1"/>
+    <col min="5" max="7" width="27.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="4">
+        <v>88</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>1100</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="29">
+        <v>36</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>1101</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="29">
+        <v>22</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>1102</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="29">
+        <v>21</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>1103</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="29">
+        <v>23</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD7C419-FD53-49D9-9D37-03E0C6F65F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B6942-F032-4BAC-83EA-085B7231FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
-    <sheet name="ItemDesign" sheetId="8" r:id="rId2"/>
-    <sheet name="GemDesign" sheetId="9" r:id="rId3"/>
-    <sheet name="任务设计" sheetId="10" r:id="rId4"/>
-    <sheet name="天赋设计" sheetId="11" r:id="rId5"/>
-    <sheet name="道具设计" sheetId="12" r:id="rId6"/>
-    <sheet name="局外物品设计" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="宝石设计" sheetId="9" r:id="rId2"/>
+    <sheet name="任务设计" sheetId="10" r:id="rId3"/>
+    <sheet name="天赋设计" sheetId="11" r:id="rId4"/>
+    <sheet name="道具设计" sheetId="12" r:id="rId5"/>
+    <sheet name="局外物品设计" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,95 +125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易拉罐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶搋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Can_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生锈菜刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折断魔杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小块秘银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大伤害（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外水伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外火伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外雷伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外光伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外暗伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Mithril _01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_BreakWand_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_KitchenKnife_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_ToiletPlunger_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦迪的元素壶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1529,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1552,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1575,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -1748,266 +1659,271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D87A9-8FDF-4BF4-8D7D-72385CEF082D}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="1" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4">
-        <v>40</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="4">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+    </row>
+    <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
-        <v>35</v>
-      </c>
-      <c r="O4" s="4" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
         <v>100</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
-        <v>200</v>
-      </c>
-      <c r="M6" s="4">
-        <v>200</v>
-      </c>
-      <c r="N6" s="4">
-        <v>300</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>600</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>46</v>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2018,251 +1934,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
-        <v>3</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>100</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>100</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2278,16 +1949,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2295,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2309,13 +1980,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2323,13 +1994,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2337,13 +2008,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2351,13 +2022,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2365,13 +2036,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2379,13 +2050,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2393,13 +2064,13 @@
         <v>150</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C9" s="16">
         <v>4</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2407,13 +2078,13 @@
         <v>200</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C10" s="18">
         <v>5</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -2442,31 +2113,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2474,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C2" s="24">
         <v>2</v>
@@ -2483,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F2" s="25">
         <v>100</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="H2" s="25">
         <v>2</v>
@@ -2503,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -2512,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F3" s="11">
         <v>500</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -2532,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -2547,7 +2218,7 @@
         <v>500</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H4" s="11">
         <v>10</v>
@@ -2561,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -2576,7 +2247,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H5" s="11">
         <v>20</v>
@@ -2590,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -2605,7 +2276,7 @@
         <v>500</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H6" s="21">
         <v>1</v>
@@ -2619,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -2628,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F7" s="23">
         <v>500</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H7" s="23">
         <v>-1</v>
@@ -2648,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -2663,7 +2334,7 @@
         <v>500</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H8" s="23">
         <v>-1</v>
@@ -2677,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -2692,7 +2363,7 @@
         <v>1500</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H9" s="11">
         <v>21</v>
@@ -2706,22 +2377,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F10" s="11">
         <v>1500</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H10" s="11">
         <v>2</v>
@@ -2735,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2744,13 +2415,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F11" s="11">
         <v>1500</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H11" s="11">
         <v>11</v>
@@ -2764,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -2779,7 +2450,7 @@
         <v>2500</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H12" s="11">
         <v>3</v>
@@ -2793,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -2802,13 +2473,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F13" s="11">
         <v>2500</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H13" s="11">
         <v>12</v>
@@ -2822,13 +2493,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E14" s="11">
         <v>15</v>
@@ -2837,7 +2508,7 @@
         <v>2500</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H14" s="11">
         <v>22</v>
@@ -2851,22 +2522,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C15" s="24">
         <v>2</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F15" s="25">
         <v>2500</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="H15" s="25">
         <v>3</v>
@@ -2880,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -2895,7 +2566,7 @@
         <v>3500</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H16" s="11">
         <v>1</v>
@@ -2909,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -2924,7 +2595,7 @@
         <v>3500</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H17" s="11">
         <v>10</v>
@@ -2938,22 +2609,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F18" s="11">
         <v>3500</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H18" s="11">
         <v>20</v>
@@ -2967,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -2976,13 +2647,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F19" s="11">
         <v>4500</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H19" s="11">
         <v>3</v>
@@ -2996,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -3011,7 +2682,7 @@
         <v>4500</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H20" s="11">
         <v>12</v>
@@ -3025,13 +2696,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E21" s="11">
         <v>24</v>
@@ -3040,7 +2711,7 @@
         <v>4500</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H21" s="11">
         <v>22</v>
@@ -3054,22 +2725,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C22" s="24">
         <v>2</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F22" s="25">
         <v>5500</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H22" s="25">
         <v>-1</v>
@@ -3083,7 +2754,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C23" s="26">
         <v>3</v>
@@ -3098,7 +2769,7 @@
         <v>8000</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H23" s="27">
         <v>-1</v>
@@ -3112,13 +2783,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C24" s="26">
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E24" s="27">
         <v>0</v>
@@ -3127,7 +2798,7 @@
         <v>8000</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H24" s="27">
         <v>-1</v>
@@ -3141,13 +2812,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C25" s="26">
         <v>3</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E25" s="27">
         <v>0</v>
@@ -3156,7 +2827,7 @@
         <v>8000</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H25" s="27">
         <v>-1</v>
@@ -3170,13 +2841,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C26" s="22">
         <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="E26" s="23">
         <v>0</v>
@@ -3185,7 +2856,7 @@
         <v>500</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H26" s="23">
         <v>-1</v>
@@ -3199,13 +2870,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E27" s="21">
         <v>28</v>
@@ -3214,7 +2885,7 @@
         <v>500</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
@@ -3228,7 +2899,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
@@ -3243,7 +2914,7 @@
         <v>500</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H28" s="23">
         <v>-1</v>
@@ -3257,13 +2928,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C29" s="24">
         <v>2</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E29" s="25">
         <v>0</v>
@@ -3272,7 +2943,7 @@
         <v>2500</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="H29" s="25">
         <v>4</v>
@@ -3287,11 +2958,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3312,16 +2983,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3329,19 +3000,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3349,19 +3020,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3369,19 +3040,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3389,19 +3060,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E5" s="4">
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3409,19 +3080,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4">
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3429,19 +3100,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E7" s="4">
         <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3449,19 +3120,19 @@
         <v>200</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C8" s="29">
         <v>2</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E8" s="29">
         <v>48</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3469,19 +3140,19 @@
         <v>201</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E9" s="29">
         <v>52</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3489,19 +3160,19 @@
         <v>300</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E10" s="5">
         <v>87</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3509,19 +3180,19 @@
         <v>401</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C11" s="28">
         <v>4</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="E11" s="28">
         <v>152</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3529,19 +3200,19 @@
         <v>402</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C12" s="28">
         <v>4</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E12" s="28">
         <v>165</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3575,19 +3246,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3595,22 +3266,22 @@
         <v>1000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3618,22 +3289,22 @@
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3641,22 +3312,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3664,22 +3335,22 @@
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3687,22 +3358,22 @@
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E6" s="4">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3710,22 +3381,22 @@
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E7" s="4">
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3733,22 +3404,22 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E8" s="29">
         <v>36</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3756,22 +3427,22 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E9" s="29">
         <v>22</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3779,22 +3450,22 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E10" s="29">
         <v>21</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3802,22 +3473,22 @@
         <v>1103</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E11" s="29">
         <v>23</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B6942-F032-4BAC-83EA-085B7231FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0273369-90F3-4051-84F4-13ECEEC95A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="234">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,18 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若本轮首次命中无伤害，下一颗子弹伤害#Red(+2)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一颗子弹伤害随机#Red(1～6)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间开始时，敌方护盾随机#Blue(±1)#层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开门时：50%得#Yellow(2)金币，50%失#Yellow(2)金币。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,6 +815,159 @@
   </si>
   <si>
     <t>若仅镶嵌一种类型宝石，所有宝石效果#Blue(+2)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹伤害随机#Red(0～3)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨念缠绕的围巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若该子弹位于最后一位，获得穿透#Blue(+1)#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flavor文案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨念盘旋不去，汇聚在最后那一击中……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默注视者的眼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若敌人战斗开始时拥有≥2层护盾，本轮第1颗子弹获得穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不到，也不意味着感知不到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅血猎犬的指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在本局游戏中每失去一颗心，首颗子弹获得一次伤害#Red(+1)#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它不怕流血，只怕没有下一场撕咬的机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残响魔链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹命中敌人后未造成任何伤害（被护盾挡完），下一颗子弹获得穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒语未果，回音却化为利爪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永响之谕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“这不是某人写下的物品，而是「残响」意志本身的显现。它不被书写，也不可摧毁，只会在真正聆听的人心中回荡。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害+2
+若装备三件“残响之印”系列，最后一颗子弹伤害额外+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形术练习笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机一颗子弹的宝石类型变为“共振”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会唱歌的铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个新房间，额外获得#Yellow(+1)金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻找术手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落房间可再选择一次掉落项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被烧毁的课程手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码只剩片段，隐约可见“炼金术·灾难处理篇”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁一段废弃课室剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光的骨片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与某个学院失踪事件有关的线索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁谜题/引出隐藏NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法塔维修通告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“塔楼三层通风系统出现魔法逆流...”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁隐藏通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学徒的旧课程卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写满了各种不标准的魔法圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“刺耳的尖叫在第一发后激起恐惧，第二发才真正砸在他们脸上。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“帽子太旧了，魔力有时候会漏掉……或者突然爆发。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，敌方护盾血量随机#Blue(±1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第二颗子弹若命中敌人的护盾，则该子弹伤害#Red(+1)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1232,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1662,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2960,10 +3104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2972,10 +3116,12 @@
     <col min="2" max="2" width="23.4140625" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="73.25" customWidth="1"/>
-    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.08203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2992,10 +3138,13 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3006,16 +3155,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3026,16 +3178,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -3046,16 +3201,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="E4" s="4">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -3066,16 +3222,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E5" s="4">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -3086,16 +3243,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -3106,114 +3264,275 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4">
         <v>23</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+    <row r="8" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>200</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B10" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="29">
-        <v>2</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E10" s="29">
         <v>48</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
         <v>201</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B11" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="29">
-        <v>2</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="C11" s="29">
+        <v>2</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="29">
         <v>52</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="12" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>202</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>203</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>204</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>300</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="5">
         <v>87</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+    <row r="16" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>301</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>302</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>401</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B18" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C18" s="28">
         <v>4</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="D18" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="28">
         <v>152</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+    <row r="19" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
         <v>402</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C19" s="28">
         <v>4</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="D19" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="28">
         <v>165</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="20" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>403</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="28">
+        <v>4</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3223,10 +3542,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3246,10 +3565,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>37</v>
@@ -3258,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3266,22 +3585,22 @@
         <v>1000</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D2" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3289,22 +3608,22 @@
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3312,22 +3631,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3335,22 +3654,22 @@
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5" s="4">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3358,22 +3677,22 @@
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" s="4">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3381,115 +3700,184 @@
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4">
         <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
-        <v>1100</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="29">
-        <v>36</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>165</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
-        <v>1101</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="29">
-        <v>22</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>168</v>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
-        <v>1102</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="29">
-        <v>21</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>174</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
+        <v>1100</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="29">
+        <v>36</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>1101</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="29">
+        <v>22</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>1102</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="29">
+        <v>21</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>1103</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="B14" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="29">
         <v>23</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>177</v>
-      </c>
+      <c r="F14" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0273369-90F3-4051-84F4-13ECEEC95A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF0F7A-23FA-4CFC-B0FB-BCBBA631AA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="237">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,26 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝箱房可免费重开一次，重开概率更高但可能带Debuff。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开门时：50%得#Yellow(2)金币，50%失#Yellow(2)金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹跳过护盾命中敌人时，伤害#Red(+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若宝石顺序为『伤害-穿透-共振』，则该子弹所有宝石效果#Blue(+1)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开局随机一颗子弹获得穿透#Blue(+1)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,30 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微光的黑曜石碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散发微弱光芒的碎片，似乎可以嵌入某种遗迹中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界观解谜 / 解锁新系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破损的时间沙漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间似乎停滞在最后一刻，可用于研究“时间魔法”的材料之一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集 / 道具合成 / 解锁天赋线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城镇通行许可证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,30 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪光的金币（纪念币）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已退出流通的金币，背面刻着“魔法的荣耀”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇特殊商人可交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古代魔力水晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古代遗迹中提炼的魔力结晶，可能用于法阵或仪式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁被动加成 / 兑换稀有物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法课程笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Item_Crystal_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Letter_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,18 +734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	击穿护盾后，下一发子弹伤害#Red(+3)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若每种宝石不重复，所有宝石效果#Blue(+1)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若仅镶嵌一种类型宝石，所有宝石效果#Blue(+2)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一颗子弹伤害随机#Red(0～3)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,10 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若该子弹位于最后一位，获得穿透#Blue(+1)#。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flavor文案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若敌人战斗开始时拥有≥2层护盾，本轮第1颗子弹获得穿透#Blue(+1)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看不到，也不意味着感知不到。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,10 +771,6 @@
   </si>
   <si>
     <t>残响魔链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若一颗子弹命中敌人后未造成任何伤害（被护盾挡完），下一颗子弹获得穿透#Blue(+1)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -891,70 +795,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机一颗子弹的宝石类型变为“共振”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会唱歌的铃铛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每进入一个新房间，额外获得#Yellow(+1)金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翻找术手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掉落房间可再选择一次掉落项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被烧毁的课程手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页码只剩片段，隐约可见“炼金术·灾难处理篇”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁一段废弃课室剧情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪光的骨片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与某个学院失踪事件有关的线索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁谜题/引出隐藏NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法塔维修通告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“塔楼三层通风系统出现魔法逆流...”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁隐藏通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学徒的旧课程卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写满了各种不标准的魔法圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“刺耳的尖叫在第一发后激起恐惧，第二发才真正砸在他们脸上。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -968,6 +812,177 @@
   </si>
   <si>
     <t>你的第二颗子弹若命中敌人的护盾，则该子弹伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“没人知道它头转了几圈……也没人知道敌人怎么就突然多了一层护盾。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个新房间：50%得#Yellow(4)金币，50%失#Yellow(2)金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“每换个地方它都发抖……不过抖着抖着，也许会掉出点什么。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“扫帚带着奇怪的风，飞行轨迹有点歪，却总能钻过缝隙直冲要害。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第二颗子弹无视敌人的第一层护盾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，你的第1~3颗子弹中随机一颗获得穿透#Blue(+1)#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“穿这只靴子的人，至少总有一次能踩到正点上。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，你镶嵌的宝石中，随机一个类型变为“共振”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“老师说‘变形’是高阶课程……它现在好像把伤害变得很有共鸣。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎裂的玩具魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的最后一颗子弹本轮宝石全部失效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“啪嗒——在你需要它的时候，它只冒出了一颗粉色泡泡。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第一颗子弹伤害#Red(-1)#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发霉的训练日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“上面写着：‘今天没练。’”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错页的战术笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	“某人抄错了战术笔记的页码，于是本来第三发该打Boss的……飞了。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时，你的子弹的顺序会被随机打乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三颗子弹，50%概率宝石效果翻倍，30%概率宝石效果失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它原本是本火球术魔导手册……但作者拼错了‘火’和‘爆’。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第一、第三、第五颗子弹伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它从来都不亮完整一整秒，但够你看清要瞄哪。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害#Red(+2)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若敌人战斗护盾≥2层，第1颗子弹穿透#Blue(+1)#,伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“翻找的姿势也很关键。这是第五种。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有50%概率可以额外翻找一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它不只沾上了护盾的碎片，还顺便粘走了它的一点能量。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	首次击穿护盾后，下一发子弹伤害#Red(+3)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹被护盾挡住，下一颗子弹获得穿透#Blue(+1)# 伤害#Blue(+2)#，仅生效一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹镶嵌的宝石类型不重复，则宝石效果#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹镶嵌一种类型宝石，则宝石效果#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“书页泛着七彩微光，读者从未真正理解过内容，但每一页都恰好唤起正确的咒语。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它拒绝理解其他魔法体系，王者只需一种方式胜利。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城建道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“在旧塔楼的残墙中常有零星碎片，表面光洁如镜，能映出未成形的咒语。”
+据说黑曜石里藏着未被书写的魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它不发光，却能点燃脑中曾经遗忘的知识。大多数人会在拿起它的瞬间想起一个没学会的咒语。”
+——常见于禁术书页的压纸石。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“据说能导通最古老的符文回路。也是唯一一种能同时承载力量与意志的材料。”
+多用于塔尖、魔阵中枢、老教授的假牙。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,6 +1250,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3104,24 +3122,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.4140625" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="73.25" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.08203125" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+    <col min="6" max="6" width="63.58203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3138,13 +3157,16 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3154,20 +3176,21 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>196</v>
+      <c r="D2" s="30" t="s">
+        <v>175</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3177,362 +3200,473 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>233</v>
+      <c r="D3" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="4">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="4">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="4">
         <v>21</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F7" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="4">
         <v>23</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="B9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="4">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>200</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E12" s="29">
+        <v>48</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
-        <v>200</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="29">
-        <v>2</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="29">
-        <v>48</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="G12" s="29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
         <v>201</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B13" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="29">
-        <v>2</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="C13" s="29">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="29">
         <v>52</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
+      <c r="F13" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>202</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="29">
-        <v>2</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="B14" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="29">
+        <v>54</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
         <v>203</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="29">
-        <v>2</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="B15" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="29">
+        <v>49</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
         <v>204</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="29">
-        <v>2</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="B16" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="29">
+        <v>61</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>300</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="5">
-        <v>87</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>301</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>302</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="5"/>
+      <c r="D17" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="5">
+        <v>87</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+        <v>223</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>301</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="5">
+        <v>92</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>302</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="5">
+        <v>74</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
         <v>401</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B20" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="C18" s="28">
-        <v>4</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="28">
-        <v>152</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
-        <v>402</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="28">
-        <v>4</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="28">
-        <v>165</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
-        <v>403</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="C20" s="28">
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="28"/>
+        <v>226</v>
+      </c>
+      <c r="E20" s="28">
+        <v>152</v>
+      </c>
       <c r="F20" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+        <v>228</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>402</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="28">
+        <v>165</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
+        <v>403</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="28">
+        <v>4</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="28">
+        <v>135</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3542,22 +3676,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="27.58203125" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="59.25" customWidth="1"/>
-    <col min="5" max="7" width="27.58203125" customWidth="1"/>
+    <col min="2" max="3" width="27.58203125" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="81.58203125" customWidth="1"/>
+    <col min="6" max="8" width="27.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3565,319 +3699,255 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="4">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="4">
+        <v>158</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="4">
+        <v>161</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="4">
+        <v>164</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="4">
         <v>88</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+        <v>170</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>1100</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="B8" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="29">
         <v>36</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="G8" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>1101</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="B9" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="29">
         <v>22</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="G9" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>1102</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="B10" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="29">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="29">
         <v>21</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
-        <v>1103</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="29">
-        <v>23</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CF0F7A-23FA-4CFC-B0FB-BCBBA631AA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEF8B7-CAE0-46B5-826D-227A98981B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1710" windowWidth="17230" windowHeight="15250" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="天赋设计" sheetId="11" r:id="rId4"/>
     <sheet name="道具设计" sheetId="12" r:id="rId5"/>
     <sheet name="局外物品设计" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="Buff设计" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="267">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,18 +723,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Item_Hourglass_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Authorize_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Item_FlashCoins_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一颗子弹伤害随机#Red(0～3)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -783,11 +776,6 @@
   </si>
   <si>
     <t>“这不是某人写下的物品，而是「残响」意志本身的显现。它不被书写，也不可摧毁，只会在真正聆听的人心中回荡。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一颗子弹伤害+2
-若装备三件“残响之印”系列，最后一颗子弹伤害额外+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -983,6 +971,139 @@
   <si>
     <t>“据说能导通最古老的符文回路。也是唯一一种能同时承载力量与意志的材料。”
 多用于塔尖、魔阵中枢、老教授的假牙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_BookPaper_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_QuillPen_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_BadBook_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Scarf_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Blindfold_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Book_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Ring_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_MagicWand_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Oracle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Chain_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害#Red(+2)#
+若装备三件“残响之印”系列，最后一颗子弹伤害额外#Red(+4)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Mithril_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Crystal_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷乱咒印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时子弹顺序打乱，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力残毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒术疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹宝石效果-1，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二颗子弹伤害-1，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力短路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹穿透失效，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔流逆涌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最后一颗子弹伤害-2，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒语打结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的全部子弹伤害-1，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你无法发射第四颗子弹，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒式卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三颗子弹无法触发宝石效果，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏斜射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透失效，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共鸣屏障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振失效，持续一场战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,7 +1946,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3124,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3157,13 +3278,13 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3177,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>123</v>
@@ -3201,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>24</v>
@@ -3219,23 +3340,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3249,13 +3372,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>128</v>
@@ -3273,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4">
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>132</v>
@@ -3297,13 +3420,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4">
         <v>21</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>137</v>
@@ -3321,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" s="4">
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>139</v>
@@ -3339,23 +3462,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3363,23 +3488,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E10" s="4">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H10" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3387,23 +3514,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3417,13 +3546,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E12" s="29">
         <v>48</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>142</v>
@@ -3441,13 +3570,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E13" s="29">
         <v>52</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>130</v>
@@ -3459,21 +3588,23 @@
         <v>202</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="29">
         <v>2</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E14" s="29">
         <v>54</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>176</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>237</v>
+      </c>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3481,21 +3612,23 @@
         <v>203</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="29">
         <v>2</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E15" s="29">
         <v>49</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>178</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3503,21 +3636,23 @@
         <v>204</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E16" s="29">
         <v>61</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>218</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>239</v>
+      </c>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3531,13 +3666,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E17" s="5">
         <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>126</v>
@@ -3549,21 +3684,23 @@
         <v>301</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E18" s="5">
         <v>92</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3571,21 +3708,23 @@
         <v>302</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" s="5">
         <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3599,13 +3738,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E20" s="28">
         <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>135</v>
@@ -3623,13 +3762,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E21" s="28">
         <v>165</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>141</v>
@@ -3641,21 +3780,23 @@
         <v>403</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" s="28">
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="E22" s="28">
         <v>135</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G22" s="28"/>
+        <v>185</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>242</v>
+      </c>
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3676,16 +3817,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="3" width="27.58203125" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="81.58203125" customWidth="1"/>
     <col min="6" max="8" width="27.58203125" customWidth="1"/>
@@ -3724,7 +3866,9 @@
       <c r="B2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>148</v>
       </c>
@@ -3748,7 +3892,9 @@
       <c r="B3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>148</v>
       </c>
@@ -3772,7 +3918,9 @@
       <c r="B4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>148</v>
       </c>
@@ -3796,7 +3944,9 @@
       <c r="B5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>148</v>
       </c>
@@ -3820,7 +3970,9 @@
       <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>148</v>
       </c>
@@ -3831,7 +3983,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>163</v>
@@ -3844,7 +3996,9 @@
       <c r="B7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>148</v>
       </c>
@@ -3866,7 +4020,7 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
@@ -3875,7 +4029,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F8" s="29">
         <v>36</v>
@@ -3884,7 +4038,7 @@
         <v>171</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3892,7 +4046,7 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
@@ -3901,16 +4055,16 @@
         <v>154</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F9" s="29">
         <v>22</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3918,7 +4072,7 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
@@ -3927,27 +4081,17 @@
         <v>154</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F10" s="29">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3956,11 +4100,230 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585592A8-60BC-43CE-A076-404470511815}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.4140625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="6" width="26.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>101</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>201</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>202</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CEF8B7-CAE0-46B5-826D-227A98981B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F7969-4C9F-46D7-9AC0-D12B343304DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1710" windowWidth="17230" windowHeight="15250" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="道具设计" sheetId="12" r:id="rId5"/>
     <sheet name="局外物品设计" sheetId="13" r:id="rId6"/>
     <sheet name="Buff设计" sheetId="14" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="TagSystem" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="304">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,6 +1105,154 @@
   </si>
   <si>
     <t>共振失效，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CandleGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lantern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallHole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscCabinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenPile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheepSkull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookPile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookShelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebuffChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RareLoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,6 +1304,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1273,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,6 +1532,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4103,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585592A8-60BC-43CE-A076-404470511815}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4319,6 +4488,897 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A90F9-F806-404B-9EF4-9CD562BD8EFD}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="G14" s="35">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="5">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="5">
+        <v>101</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="5">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="5">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="5">
+        <v>104</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5">
+        <v>20</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B23" s="5">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="5">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" s="28">
+        <v>200</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36">
+        <v>20</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0</v>
+      </c>
+      <c r="G25" s="36">
+        <v>10</v>
+      </c>
+      <c r="H25" s="36">
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="28">
+        <v>201</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36">
+        <v>20</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
+        <v>10</v>
+      </c>
+      <c r="H26" s="36">
+        <v>10</v>
+      </c>
+      <c r="I26" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="28">
+        <v>202</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36">
+        <v>10</v>
+      </c>
+      <c r="F27" s="36">
+        <v>20</v>
+      </c>
+      <c r="G27" s="36">
+        <v>10</v>
+      </c>
+      <c r="H27" s="36">
+        <v>10</v>
+      </c>
+      <c r="I27" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="28">
+        <v>203</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+      <c r="E28" s="36">
+        <v>10</v>
+      </c>
+      <c r="F28" s="36">
+        <v>20</v>
+      </c>
+      <c r="G28" s="36">
+        <v>10</v>
+      </c>
+      <c r="H28" s="36">
+        <v>10</v>
+      </c>
+      <c r="I28" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="34">
+        <v>301</v>
+      </c>
+      <c r="C29" s="37">
+        <v>0</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
+        <v>20</v>
+      </c>
+      <c r="F29" s="37">
+        <v>10</v>
+      </c>
+      <c r="G29" s="37">
+        <v>10</v>
+      </c>
+      <c r="H29" s="37">
+        <v>10</v>
+      </c>
+      <c r="I29" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="4">
+        <v>999</v>
+      </c>
+      <c r="C30" s="4">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F7969-4C9F-46D7-9AC0-D12B343304DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683B9C82-C19D-4133-95E6-0065D8A865AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1430" yWindow="2120" windowWidth="22600" windowHeight="15210" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="306">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,6 +1253,13 @@
   </si>
   <si>
     <t>MetaResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>Debuff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4270,22 +4277,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585592A8-60BC-43CE-A076-404470511815}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.4140625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="6" width="26.4140625" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4299,13 +4305,10 @@
         <v>147</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4316,12 +4319,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4332,12 +4336,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4348,12 +4353,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4364,12 +4370,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4380,12 +4387,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4396,12 +4404,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>100</v>
       </c>
@@ -4412,12 +4421,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>101</v>
       </c>
@@ -4428,12 +4438,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>201</v>
       </c>
@@ -4444,12 +4455,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>202</v>
       </c>
@@ -4460,26 +4472,25 @@
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4491,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A90F9-F806-404B-9EF4-9CD562BD8EFD}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683B9C82-C19D-4133-95E6-0065D8A865AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17E460-6CCE-4DB0-A17A-C4588C42011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1430" yWindow="2120" windowWidth="22600" windowHeight="15210" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3730" yWindow="2130" windowWidth="31010" windowHeight="15210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开火时，你的子弹的顺序会被随机打乱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第三颗子弹，50%概率宝石效果翻倍，30%概率宝石效果失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,6 +1256,10 @@
   </si>
   <si>
     <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时，你的子弹的顺序会被随机打乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3421,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
@@ -3531,7 +3531,7 @@
         <v>210</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>201</v>
@@ -3653,7 +3653,7 @@
         <v>202</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>201</v>
@@ -3679,7 +3679,7 @@
         <v>205</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>201</v>
@@ -3705,7 +3705,7 @@
         <v>208</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>201</v>
@@ -3722,13 +3722,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="29">
         <v>48</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>142</v>
@@ -3746,13 +3746,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="29">
         <v>52</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>130</v>
@@ -3770,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="29">
         <v>54</v>
@@ -3779,7 +3779,7 @@
         <v>176</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H14" s="29"/>
     </row>
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="29">
         <v>49</v>
@@ -3803,7 +3803,7 @@
         <v>178</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H15" s="29"/>
     </row>
@@ -3818,16 +3818,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="29">
         <v>61</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H16" s="29"/>
     </row>
@@ -3842,13 +3842,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E17" s="5">
         <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>126</v>
@@ -3875,7 +3875,7 @@
         <v>181</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3890,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="5">
         <v>74</v>
@@ -3899,7 +3899,7 @@
         <v>183</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -3914,13 +3914,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="28">
         <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>135</v>
@@ -3938,13 +3938,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="28">
         <v>165</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>141</v>
@@ -3962,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" s="28">
         <v>135</v>
@@ -3971,7 +3971,7 @@
         <v>185</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H22" s="28"/>
     </row>
@@ -4196,7 +4196,7 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="29">
         <v>36</v>
@@ -4214,7 +4214,7 @@
         <v>171</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
@@ -4231,16 +4231,16 @@
         <v>154</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="29">
         <v>22</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
@@ -4257,16 +4257,16 @@
         <v>154</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="29">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585592A8-60BC-43CE-A076-404470511815}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -4313,16 +4313,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4330,16 +4330,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4347,16 +4347,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4364,16 +4364,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4381,16 +4381,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4398,16 +4398,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4415,16 +4415,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4432,16 +4432,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4449,16 +4449,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,16 +4466,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4515,36 +4515,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="5">
         <v>100</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="5">
         <v>101</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20" s="5">
         <v>102</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="5">
         <v>103</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="5">
         <v>104</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B23" s="5">
         <v>105</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24" s="5">
         <v>106</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" s="28">
         <v>200</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="28">
         <v>201</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B27" s="28">
         <v>202</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B28" s="28">
         <v>203</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="34">
         <v>301</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="4">
         <v>999</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E17E460-6CCE-4DB0-A17A-C4588C42011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555000A-7887-4BBA-82EB-8E4799CBD323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3730" yWindow="2130" windowWidth="31010" windowHeight="15210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3730" yWindow="2130" windowWidth="31010" windowHeight="17220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -808,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每进入一个新房间：50%得#Yellow(4)金币，50%失#Yellow(2)金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“每换个地方它都发抖……不过抖着抖着，也许会掉出点什么。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,14 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的第二颗子弹无视敌人的第一层护盾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，你的第1~3颗子弹中随机一颗获得穿透#Blue(+1)#。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“穿这只靴子的人，至少总有一次能踩到正点上。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,15 +840,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的最后一颗子弹本轮宝石全部失效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“啪嗒——在你需要它的时候，它只冒出了一颗粉色泡泡。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的第一颗子弹伤害#Red(-1)#。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1260,6 +1240,26 @@
   </si>
   <si>
     <t>开火时，你的子弹的顺序会被随机打乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，你的第1~3颗子弹中随机一颗获得穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第一颗子弹伤害#Red(-1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第二颗子弹无视敌人的一层护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个新房间：50%得#Yellow(4)#金币，50%失#Yellow(2)#金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的最后一颗子弹本轮宝石全部失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3421,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3460,7 +3460,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3516,25 +3516,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3572,13 +3572,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="E6" s="4">
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>132</v>
@@ -3596,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="E7" s="4">
         <v>21</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>137</v>
@@ -3620,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="E8" s="4">
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>139</v>
@@ -3644,19 +3644,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="4">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3664,25 +3664,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="E10" s="4">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3690,25 +3690,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3722,13 +3722,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E12" s="29">
         <v>48</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>142</v>
@@ -3746,13 +3746,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E13" s="29">
         <v>52</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>130</v>
@@ -3770,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E14" s="29">
         <v>54</v>
@@ -3779,7 +3779,7 @@
         <v>176</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H14" s="29"/>
     </row>
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E15" s="29">
         <v>49</v>
@@ -3803,7 +3803,7 @@
         <v>178</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H15" s="29"/>
     </row>
@@ -3818,16 +3818,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E16" s="29">
         <v>61</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H16" s="29"/>
     </row>
@@ -3842,13 +3842,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E17" s="5">
         <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>126</v>
@@ -3875,7 +3875,7 @@
         <v>181</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3890,7 +3890,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E19" s="5">
         <v>74</v>
@@ -3899,7 +3899,7 @@
         <v>183</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -3914,13 +3914,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E20" s="28">
         <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>135</v>
@@ -3938,13 +3938,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E21" s="28">
         <v>165</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>141</v>
@@ -3962,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E22" s="28">
         <v>135</v>
@@ -3971,7 +3971,7 @@
         <v>185</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H22" s="28"/>
     </row>
@@ -4196,7 +4196,7 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F8" s="29">
         <v>36</v>
@@ -4214,7 +4214,7 @@
         <v>171</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
@@ -4231,16 +4231,16 @@
         <v>154</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F9" s="29">
         <v>22</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
@@ -4257,16 +4257,16 @@
         <v>154</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F10" s="29">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4313,16 +4313,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4330,16 +4330,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4347,16 +4347,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4364,16 +4364,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4381,16 +4381,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4398,16 +4398,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4415,16 +4415,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4432,16 +4432,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4449,16 +4449,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,16 +4466,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4515,36 +4515,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B18" s="5">
         <v>100</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B19" s="5">
         <v>101</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B20" s="5">
         <v>102</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B21" s="5">
         <v>103</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B22" s="5">
         <v>104</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B23" s="5">
         <v>105</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B24" s="5">
         <v>106</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B25" s="28">
         <v>200</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B26" s="28">
         <v>201</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B27" s="28">
         <v>202</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B28" s="28">
         <v>203</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B29" s="34">
         <v>301</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B30" s="4">
         <v>999</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555000A-7887-4BBA-82EB-8E4799CBD323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B237E707-5AF8-4332-8EDA-38F5533003A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3730" yWindow="2130" windowWidth="31010" windowHeight="17220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -900,10 +900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若一颗子弹被护盾挡住，下一颗子弹获得穿透#Blue(+1)# 伤害#Blue(+2)#，仅生效一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若一颗子弹镶嵌的宝石类型不重复，则宝石效果#Blue(+1)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -991,11 +987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后一颗子弹伤害#Red(+2)#
-若装备三件“残响之印”系列，最后一颗子弹伤害额外#Red(+4)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Mithril_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,6 +1251,14 @@
   </si>
   <si>
     <t>你的最后一颗子弹本轮宝石全部失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹被护盾挡住，下一颗子弹获得穿透#Blue(+1)# 伤害#Red(+2)#，仅生效一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害#Red(+5)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3421,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3522,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
@@ -3531,7 +3530,7 @@
         <v>205</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>198</v>
@@ -3572,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="4">
         <v>22</v>
@@ -3596,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E7" s="4">
         <v>21</v>
@@ -3620,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E8" s="4">
         <v>23</v>
@@ -3653,7 +3652,7 @@
         <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>198</v>
@@ -3670,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E10" s="4">
         <v>13</v>
@@ -3679,7 +3678,7 @@
         <v>201</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>198</v>
@@ -3696,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
@@ -3705,7 +3704,7 @@
         <v>203</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>198</v>
@@ -3779,7 +3778,7 @@
         <v>176</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H14" s="29"/>
     </row>
@@ -3803,7 +3802,7 @@
         <v>178</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H15" s="29"/>
     </row>
@@ -3827,7 +3826,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="29"/>
     </row>
@@ -3875,7 +3874,7 @@
         <v>181</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3890,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="E19" s="5">
         <v>74</v>
@@ -3899,7 +3898,7 @@
         <v>183</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -3914,13 +3913,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" s="28">
         <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>135</v>
@@ -3938,13 +3937,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" s="28">
         <v>165</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>141</v>
@@ -3962,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="E22" s="28">
         <v>135</v>
@@ -3971,7 +3970,7 @@
         <v>185</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H22" s="28"/>
     </row>
@@ -3988,6 +3987,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3995,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4196,7 +4196,7 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="29">
         <v>36</v>
@@ -4214,7 +4214,7 @@
         <v>171</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,7 +4222,7 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
@@ -4231,16 +4231,16 @@
         <v>154</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="29">
         <v>22</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
@@ -4257,16 +4257,16 @@
         <v>154</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F10" s="29">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4313,16 +4313,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4330,16 +4330,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4347,16 +4347,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4364,16 +4364,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4381,16 +4381,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4398,16 +4398,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4415,16 +4415,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4432,16 +4432,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4449,16 +4449,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,16 +4466,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A90F9-F806-404B-9EF4-9CD562BD8EFD}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4515,36 +4515,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B18" s="5">
         <v>100</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B19" s="5">
         <v>101</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B20" s="5">
         <v>102</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B21" s="5">
         <v>103</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B22" s="5">
         <v>104</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B23" s="5">
         <v>105</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B24" s="5">
         <v>106</v>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B25" s="28">
         <v>200</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B26" s="28">
         <v>201</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B27" s="28">
         <v>202</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B28" s="28">
         <v>203</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B29" s="34">
         <v>301</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B30" s="4">
         <v>999</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B237E707-5AF8-4332-8EDA-38F5533003A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888ED6FC-2895-44A5-ACEB-ADB0AC7B397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -3420,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3995,7 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888ED6FC-2895-44A5-ACEB-ADB0AC7B397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4253F56-91A2-4BF2-9E02-C9DEB849DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11650" yWindow="2380" windowWidth="21060" windowHeight="16040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="300">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Gem_Piercing_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Resonance_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,27 +155,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Gem_Damage_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Gem_Damage_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Gem_Piercing_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Gem_Piercing_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Gem_Resonance_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Gem_Resonance_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神秘的信件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一封署名为“教授”的信件，上面写着：“你准备好接受真正的试炼了吗？”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,6 +1231,10 @@
   </si>
   <si>
     <t>最后一颗子弹伤害#Red(+5)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的信件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1898,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1921,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -1944,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
@@ -2118,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2153,7 +2129,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>23</v>
@@ -2164,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2181,207 +2157,57 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
       <c r="H4" s="4">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>100</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>100</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2407,16 +2233,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2424,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,13 +2264,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2452,13 +2278,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2466,13 +2292,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2480,13 +2306,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2494,13 +2320,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2508,13 +2334,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,13 +2348,13 @@
         <v>150</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16">
         <v>4</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2536,13 +2362,13 @@
         <v>200</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="18">
         <v>5</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2571,31 +2397,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2603,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="24">
         <v>2</v>
@@ -2612,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="25">
         <v>100</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H2" s="25">
         <v>2</v>
@@ -2632,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -2641,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F3" s="11">
         <v>500</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -2661,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -2676,7 +2502,7 @@
         <v>500</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H4" s="11">
         <v>10</v>
@@ -2690,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -2705,7 +2531,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H5" s="11">
         <v>20</v>
@@ -2719,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -2734,7 +2560,7 @@
         <v>500</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H6" s="21">
         <v>1</v>
@@ -2748,7 +2574,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -2757,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="23">
         <v>500</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H7" s="23">
         <v>-1</v>
@@ -2777,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -2792,7 +2618,7 @@
         <v>500</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H8" s="23">
         <v>-1</v>
@@ -2806,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -2821,7 +2647,7 @@
         <v>1500</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H9" s="11">
         <v>21</v>
@@ -2835,22 +2661,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F10" s="11">
         <v>1500</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H10" s="11">
         <v>2</v>
@@ -2864,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2873,13 +2699,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F11" s="11">
         <v>1500</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H11" s="11">
         <v>11</v>
@@ -2893,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -2908,7 +2734,7 @@
         <v>2500</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H12" s="11">
         <v>3</v>
@@ -2922,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -2931,13 +2757,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F13" s="11">
         <v>2500</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H13" s="11">
         <v>12</v>
@@ -2951,13 +2777,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" s="11">
         <v>15</v>
@@ -2966,7 +2792,7 @@
         <v>2500</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H14" s="11">
         <v>22</v>
@@ -2980,22 +2806,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" s="24">
         <v>2</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>93</v>
       </c>
       <c r="F15" s="25">
         <v>2500</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H15" s="25">
         <v>3</v>
@@ -3009,7 +2835,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -3024,7 +2850,7 @@
         <v>3500</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H16" s="11">
         <v>1</v>
@@ -3038,7 +2864,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -3053,7 +2879,7 @@
         <v>3500</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H17" s="11">
         <v>10</v>
@@ -3067,22 +2893,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="F18" s="11">
         <v>3500</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H18" s="11">
         <v>20</v>
@@ -3096,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -3105,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11">
         <v>4500</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H19" s="11">
         <v>3</v>
@@ -3125,7 +2951,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -3140,7 +2966,7 @@
         <v>4500</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H20" s="11">
         <v>12</v>
@@ -3154,13 +2980,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E21" s="11">
         <v>24</v>
@@ -3169,7 +2995,7 @@
         <v>4500</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H21" s="11">
         <v>22</v>
@@ -3183,22 +3009,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C22" s="24">
         <v>2</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F22" s="25">
         <v>5500</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H22" s="25">
         <v>-1</v>
@@ -3212,7 +3038,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="26">
         <v>3</v>
@@ -3227,7 +3053,7 @@
         <v>8000</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H23" s="27">
         <v>-1</v>
@@ -3241,13 +3067,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C24" s="26">
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E24" s="27">
         <v>0</v>
@@ -3256,7 +3082,7 @@
         <v>8000</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H24" s="27">
         <v>-1</v>
@@ -3270,13 +3096,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C25" s="26">
         <v>3</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E25" s="27">
         <v>0</v>
@@ -3285,7 +3111,7 @@
         <v>8000</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H25" s="27">
         <v>-1</v>
@@ -3299,13 +3125,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C26" s="22">
         <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E26" s="23">
         <v>0</v>
@@ -3314,7 +3140,7 @@
         <v>500</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H26" s="23">
         <v>-1</v>
@@ -3328,13 +3154,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E27" s="21">
         <v>28</v>
@@ -3343,7 +3169,7 @@
         <v>500</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
@@ -3357,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
@@ -3372,7 +3198,7 @@
         <v>500</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H28" s="23">
         <v>-1</v>
@@ -3386,13 +3212,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" s="24">
         <v>2</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E29" s="25">
         <v>0</v>
@@ -3401,7 +3227,7 @@
         <v>2500</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H29" s="25">
         <v>4</v>
@@ -3420,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3444,22 +3270,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3467,22 +3293,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -3491,19 +3317,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>24</v>
@@ -3515,25 +3341,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3541,22 +3367,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E5" s="4">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3565,22 +3391,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E6" s="4">
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -3589,22 +3415,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E7" s="4">
         <v>21</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -3613,22 +3439,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E8" s="4">
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -3637,25 +3463,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E9" s="4">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3663,25 +3489,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E10" s="4">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3689,25 +3515,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3715,22 +3541,22 @@
         <v>200</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C12" s="29">
         <v>2</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E12" s="29">
         <v>48</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H12" s="29"/>
     </row>
@@ -3739,22 +3565,22 @@
         <v>201</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E13" s="29">
         <v>52</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H13" s="29"/>
     </row>
@@ -3763,22 +3589,22 @@
         <v>202</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C14" s="29">
         <v>2</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E14" s="29">
         <v>54</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H14" s="29"/>
     </row>
@@ -3787,22 +3613,22 @@
         <v>203</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C15" s="29">
         <v>2</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E15" s="29">
         <v>49</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H15" s="29"/>
     </row>
@@ -3811,22 +3637,22 @@
         <v>204</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E16" s="29">
         <v>61</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H16" s="29"/>
     </row>
@@ -3835,22 +3661,22 @@
         <v>300</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5">
         <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -3859,22 +3685,22 @@
         <v>301</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E18" s="5">
         <v>92</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3883,22 +3709,22 @@
         <v>302</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E19" s="5">
         <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -3907,22 +3733,22 @@
         <v>401</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C20" s="28">
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E20" s="28">
         <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H20" s="28"/>
     </row>
@@ -3931,22 +3757,22 @@
         <v>402</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C21" s="28">
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E21" s="28">
         <v>165</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H21" s="28"/>
     </row>
@@ -3955,22 +3781,22 @@
         <v>403</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C22" s="28">
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E22" s="28">
         <v>135</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H22" s="28"/>
     </row>
@@ -3995,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4017,22 +3843,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4040,25 +3866,25 @@
         <v>1000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4">
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4066,25 +3892,25 @@
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4">
         <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4092,25 +3918,25 @@
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4118,25 +3944,25 @@
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4144,25 +3970,25 @@
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4170,25 +3996,25 @@
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F7" s="4">
         <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4196,25 +4022,25 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F8" s="29">
         <v>36</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,25 +4048,25 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F9" s="29">
         <v>22</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4248,25 +4074,25 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F10" s="29">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4302,10 +4128,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4313,16 +4139,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4330,16 +4156,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4347,16 +4173,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4364,16 +4190,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4381,16 +4207,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4398,16 +4224,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4415,16 +4241,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4432,16 +4258,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4449,16 +4275,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,16 +4292,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4515,36 +4341,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4573,7 +4399,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4602,7 +4428,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4631,7 +4457,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -4660,7 +4486,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -4689,7 +4515,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -4718,7 +4544,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -4747,7 +4573,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -4776,7 +4602,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -4805,7 +4631,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -4834,7 +4660,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -4863,7 +4689,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
@@ -4892,7 +4718,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -4921,7 +4747,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -4950,7 +4776,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
@@ -4979,7 +4805,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
@@ -5008,7 +4834,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B18" s="5">
         <v>100</v>
@@ -5037,7 +4863,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B19" s="5">
         <v>101</v>
@@ -5066,7 +4892,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B20" s="5">
         <v>102</v>
@@ -5095,7 +4921,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B21" s="5">
         <v>103</v>
@@ -5124,7 +4950,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B22" s="5">
         <v>104</v>
@@ -5153,7 +4979,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B23" s="5">
         <v>105</v>
@@ -5182,7 +5008,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B24" s="5">
         <v>106</v>
@@ -5211,7 +5037,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B25" s="28">
         <v>200</v>
@@ -5240,7 +5066,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B26" s="28">
         <v>201</v>
@@ -5269,7 +5095,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B27" s="28">
         <v>202</v>
@@ -5298,7 +5124,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B28" s="28">
         <v>203</v>
@@ -5327,7 +5153,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B29" s="34">
         <v>301</v>
@@ -5356,7 +5182,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B30" s="4">
         <v>999</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4253F56-91A2-4BF2-9E02-C9DEB849DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4BAE9-5B3E-488F-BBBE-3FC107548E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11650" yWindow="2380" windowWidth="21060" windowHeight="16040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11650" yWindow="2380" windowWidth="21060" windowHeight="16040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2154,7 +2154,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>29</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>30</v>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>28</v>
@@ -3821,8 +3821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4BAE9-5B3E-488F-BBBE-3FC107548E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4249103-49B5-4126-8E00-DB0DFCF75945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11650" yWindow="2380" windowWidth="21060" windowHeight="16040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
     <sheet name="宝石设计" sheetId="9" r:id="rId2"/>
     <sheet name="任务设计" sheetId="10" r:id="rId3"/>
     <sheet name="天赋设计" sheetId="11" r:id="rId4"/>
-    <sheet name="道具设计" sheetId="12" r:id="rId5"/>
+    <sheet name="奇迹物件设计" sheetId="12" r:id="rId5"/>
     <sheet name="局外物品设计" sheetId="13" r:id="rId6"/>
     <sheet name="Buff设计" sheetId="14" r:id="rId7"/>
     <sheet name="TagSystem" sheetId="15" r:id="rId8"/>
@@ -2096,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3246,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4249103-49B5-4126-8E00-DB0DFCF75945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC12B5F-D116-4DCD-B6F1-46314235DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11510" yWindow="1560" windowWidth="23150" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BulletDesign" sheetId="1" r:id="rId1"/>
+    <sheet name="子弹设计" sheetId="1" r:id="rId1"/>
     <sheet name="宝石设计" sheetId="9" r:id="rId2"/>
     <sheet name="任务设计" sheetId="10" r:id="rId3"/>
     <sheet name="天赋设计" sheetId="11" r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="304">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,42 +63,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ice01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FX_Bullet02_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ice02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FX_Bullet03_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fire02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penetration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(com)ElementalType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,18 +132,6 @@
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黏土子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬质子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑曜石子弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1235,6 +1195,62 @@
   </si>
   <si>
     <t>神秘的信件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏黏团子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜噗噗拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙疼丸子冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷咚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	硬崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷脸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	冻霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电球球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啪子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧嘟嘟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_Bullet04_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalInfusionValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1823,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1847,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1874,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1897,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1920,10 +1936,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="D4" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1943,19 +1959,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1966,19 +1982,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1989,19 +2005,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
         <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2012,19 +2028,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2035,19 +2051,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2058,24 +2074,90 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="D10" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>104</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>204</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
     <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2114,25 +2196,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2140,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -2157,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2165,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -2182,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2190,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -2207,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2233,16 +2315,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2250,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2264,13 +2346,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2278,13 +2360,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,13 +2374,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2306,13 +2388,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2320,13 +2402,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2334,13 +2416,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2348,13 +2430,13 @@
         <v>150</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16">
         <v>4</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2362,13 +2444,13 @@
         <v>200</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C10" s="18">
         <v>5</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2397,31 +2479,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2429,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2" s="24">
         <v>2</v>
@@ -2438,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F2" s="25">
         <v>100</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H2" s="25">
         <v>2</v>
@@ -2458,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -2467,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F3" s="11">
         <v>500</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
@@ -2487,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -2502,7 +2584,7 @@
         <v>500</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H4" s="11">
         <v>10</v>
@@ -2516,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -2531,7 +2613,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H5" s="11">
         <v>20</v>
@@ -2545,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -2560,7 +2642,7 @@
         <v>500</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H6" s="21">
         <v>1</v>
@@ -2574,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -2583,13 +2665,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F7" s="23">
         <v>500</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H7" s="23">
         <v>-1</v>
@@ -2603,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -2618,7 +2700,7 @@
         <v>500</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H8" s="23">
         <v>-1</v>
@@ -2632,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -2647,7 +2729,7 @@
         <v>1500</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H9" s="11">
         <v>21</v>
@@ -2661,22 +2743,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F10" s="11">
         <v>1500</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H10" s="11">
         <v>2</v>
@@ -2690,7 +2772,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2699,13 +2781,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F11" s="11">
         <v>1500</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H11" s="11">
         <v>11</v>
@@ -2719,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -2734,7 +2816,7 @@
         <v>2500</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H12" s="11">
         <v>3</v>
@@ -2748,7 +2830,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -2757,13 +2839,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F13" s="11">
         <v>2500</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H13" s="11">
         <v>12</v>
@@ -2777,13 +2859,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E14" s="11">
         <v>15</v>
@@ -2792,7 +2874,7 @@
         <v>2500</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H14" s="11">
         <v>22</v>
@@ -2806,22 +2888,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="24">
         <v>2</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F15" s="25">
         <v>2500</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H15" s="25">
         <v>3</v>
@@ -2835,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -2850,7 +2932,7 @@
         <v>3500</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H16" s="11">
         <v>1</v>
@@ -2864,7 +2946,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -2879,7 +2961,7 @@
         <v>3500</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H17" s="11">
         <v>10</v>
@@ -2893,22 +2975,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F18" s="11">
         <v>3500</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H18" s="11">
         <v>20</v>
@@ -2922,7 +3004,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -2931,13 +3013,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F19" s="11">
         <v>4500</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H19" s="11">
         <v>3</v>
@@ -2951,7 +3033,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -2966,7 +3048,7 @@
         <v>4500</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H20" s="11">
         <v>12</v>
@@ -2980,13 +3062,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E21" s="11">
         <v>24</v>
@@ -2995,7 +3077,7 @@
         <v>4500</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H21" s="11">
         <v>22</v>
@@ -3009,22 +3091,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C22" s="24">
         <v>2</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F22" s="25">
         <v>5500</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H22" s="25">
         <v>-1</v>
@@ -3038,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C23" s="26">
         <v>3</v>
@@ -3053,7 +3135,7 @@
         <v>8000</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H23" s="27">
         <v>-1</v>
@@ -3067,13 +3149,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C24" s="26">
         <v>3</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E24" s="27">
         <v>0</v>
@@ -3082,7 +3164,7 @@
         <v>8000</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H24" s="27">
         <v>-1</v>
@@ -3096,13 +3178,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C25" s="26">
         <v>3</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E25" s="27">
         <v>0</v>
@@ -3111,7 +3193,7 @@
         <v>8000</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H25" s="27">
         <v>-1</v>
@@ -3125,13 +3207,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C26" s="22">
         <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E26" s="23">
         <v>0</v>
@@ -3140,7 +3222,7 @@
         <v>500</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H26" s="23">
         <v>-1</v>
@@ -3154,13 +3236,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E27" s="21">
         <v>28</v>
@@ -3169,7 +3251,7 @@
         <v>500</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H27" s="21">
         <v>1</v>
@@ -3183,7 +3265,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
@@ -3198,7 +3280,7 @@
         <v>500</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H28" s="23">
         <v>-1</v>
@@ -3212,13 +3294,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C29" s="24">
         <v>2</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E29" s="25">
         <v>0</v>
@@ -3227,7 +3309,7 @@
         <v>2500</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H29" s="25">
         <v>4</v>
@@ -3246,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -3270,22 +3352,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,22 +3375,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E2" s="4">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -3317,22 +3399,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E3" s="4">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -3341,25 +3423,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3367,22 +3449,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H5" s="4"/>
     </row>
@@ -3391,22 +3473,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E6" s="4">
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -3415,22 +3497,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E7" s="4">
         <v>21</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -3439,22 +3521,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4">
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -3463,25 +3545,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>189</v>
       </c>
       <c r="E9" s="4">
         <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3489,25 +3571,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E10" s="4">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3515,25 +3597,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3541,22 +3623,22 @@
         <v>200</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C12" s="29">
         <v>2</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E12" s="29">
         <v>48</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H12" s="29"/>
     </row>
@@ -3565,22 +3647,22 @@
         <v>201</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E13" s="29">
         <v>52</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H13" s="29"/>
     </row>
@@ -3589,22 +3671,22 @@
         <v>202</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C14" s="29">
         <v>2</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E14" s="29">
         <v>54</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H14" s="29"/>
     </row>
@@ -3613,22 +3695,22 @@
         <v>203</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C15" s="29">
         <v>2</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E15" s="29">
         <v>49</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H15" s="29"/>
     </row>
@@ -3637,22 +3719,22 @@
         <v>204</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E16" s="29">
         <v>61</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H16" s="29"/>
     </row>
@@ -3661,22 +3743,22 @@
         <v>300</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E17" s="5">
         <v>87</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -3685,22 +3767,22 @@
         <v>301</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E18" s="5">
         <v>92</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3709,22 +3791,22 @@
         <v>302</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E19" s="5">
         <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -3733,22 +3815,22 @@
         <v>401</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C20" s="28">
         <v>4</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E20" s="28">
         <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H20" s="28"/>
     </row>
@@ -3757,22 +3839,22 @@
         <v>402</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C21" s="28">
         <v>4</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E21" s="28">
         <v>165</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H21" s="28"/>
     </row>
@@ -3781,22 +3863,22 @@
         <v>403</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C22" s="28">
         <v>4</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E22" s="28">
         <v>135</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H22" s="28"/>
     </row>
@@ -3843,22 +3925,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3866,25 +3948,25 @@
         <v>1000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F2" s="4">
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3892,25 +3974,25 @@
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F3" s="4">
         <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3918,25 +4000,25 @@
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F4" s="4">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3944,25 +4026,25 @@
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3970,25 +4052,25 @@
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -3996,25 +4078,25 @@
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4">
         <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4022,25 +4104,25 @@
         <v>1100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F8" s="29">
         <v>36</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4048,25 +4130,25 @@
         <v>1101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C9" s="29">
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F9" s="29">
         <v>22</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4074,25 +4156,25 @@
         <v>1102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F10" s="29">
         <v>21</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4125,13 +4207,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4139,16 +4221,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4156,16 +4238,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4173,16 +4255,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4190,16 +4272,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4207,16 +4289,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4224,16 +4306,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4241,16 +4323,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4258,16 +4340,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4275,16 +4357,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4292,16 +4374,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4341,36 +4423,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4399,7 +4481,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -4428,7 +4510,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4457,7 +4539,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -4486,7 +4568,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -4515,7 +4597,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -4544,7 +4626,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -4573,7 +4655,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -4602,7 +4684,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -4631,7 +4713,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -4660,7 +4742,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -4689,7 +4771,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
@@ -4718,7 +4800,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -4747,7 +4829,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -4776,7 +4858,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
@@ -4805,7 +4887,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
@@ -4834,7 +4916,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B18" s="5">
         <v>100</v>
@@ -4863,7 +4945,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B19" s="5">
         <v>101</v>
@@ -4892,7 +4974,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B20" s="5">
         <v>102</v>
@@ -4921,7 +5003,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B21" s="5">
         <v>103</v>
@@ -4950,7 +5032,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B22" s="5">
         <v>104</v>
@@ -4979,7 +5061,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B23" s="5">
         <v>105</v>
@@ -5008,7 +5090,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B24" s="5">
         <v>106</v>
@@ -5037,7 +5119,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B25" s="28">
         <v>200</v>
@@ -5066,7 +5148,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B26" s="28">
         <v>201</v>
@@ -5095,7 +5177,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B27" s="28">
         <v>202</v>
@@ -5124,7 +5206,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B28" s="28">
         <v>203</v>
@@ -5153,7 +5235,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B29" s="34">
         <v>301</v>
@@ -5182,7 +5264,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B30" s="4">
         <v>999</v>
@@ -5231,10 +5313,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5242,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5250,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5258,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5266,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC12B5F-D116-4DCD-B6F1-46314235DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79210A30-A905-4EC2-A2D8-B9E30805973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11510" yWindow="1560" windowWidth="23150" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26190" yWindow="780" windowWidth="23145" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="子弹设计" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="天赋设计" sheetId="11" r:id="rId4"/>
     <sheet name="奇迹物件设计" sheetId="12" r:id="rId5"/>
     <sheet name="局外物品设计" sheetId="13" r:id="rId6"/>
-    <sheet name="Buff设计" sheetId="14" r:id="rId7"/>
-    <sheet name="TagSystem" sheetId="15" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
+    <sheet name="元素反应设计" sheetId="16" r:id="rId7"/>
+    <sheet name="Buff设计" sheetId="14" r:id="rId8"/>
+    <sheet name="TagSystem" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="341">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1251,6 +1252,154 @@
   </si>
   <si>
     <t>ElementalInfusionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冰火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对后一格单位造成 min(冰,火) x 2的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前敌人造成(火 + 火 + 冰) x 2额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前单位造成额外 (雷 + 火) 的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外造成 min(冰 , 雷)点全体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前和后一格单位造成(冰 + 冰 +火)的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冰雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹随机命中目标，伤害为：子弹伤害+(冰+冰+雷)。穿透转化为 + 命中次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆回响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机进行5次伤害，同一个目标最多命中次数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雷雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机进行一次高额伤害，伤害为：(火+雷+雷) x 2 ，50%概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火雷雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对全体造成(火+火+雷)点额外伤害，如果有单位被摧毁，则重复触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superconduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CryoExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EchoingThunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderburst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlazingTrail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +1989,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2167,6 +2316,67 @@
     <row r="20" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2463,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3904,7 +4114,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4184,6 +4394,197 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E6AC54-6C81-484B-895A-59CE45BDA306}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="19.4140625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585592A8-60BC-43CE-A076-404470511815}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -4406,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A90F9-F806-404B-9EF4-9CD562BD8EFD}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -5295,65 +5696,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79210A30-A905-4EC2-A2D8-B9E30805973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B454CB8-34CD-4912-A808-3073589FAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="780" windowWidth="23145" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="子弹设计" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="343">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1400,6 +1400,14 @@
   </si>
   <si>
     <t>BlazingTrail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1577,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1586,9 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,19 +1991,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="22.4140625" style="1" customWidth="1"/>
-    <col min="8" max="13" width="11" style="1" customWidth="1"/>
+    <col min="1" max="8" width="22.4140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2012,304 +2016,336 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>101</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>201</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>102</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>202</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>103</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>203</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="N10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>104</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>204</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2341,7 +2377,7 @@
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2349,7 +2385,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2357,7 +2393,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2365,7 +2401,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2373,7 +2409,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2428,77 +2464,77 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2524,142 +2560,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>50</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>51</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>52</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>100</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>150</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>4</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>200</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>5</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2688,843 +2724,843 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>2</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>100</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>2</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>500</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>9</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>500</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="11">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="10">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10">
         <v>500</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>20</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
         <v>26</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>500</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
-      <c r="I6" s="21">
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>500</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>-1</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
         <v>25</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>500</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>-1</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>13</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1500</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>21</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1500</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1500</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>11</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10">
         <v>17</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>2500</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>3</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>2500</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>12</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>15</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>2500</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>22</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>2</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>2500</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>3</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
         <v>13</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>18</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>3500</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
         <v>14</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>18</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>3500</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="11">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="10">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>3500</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>20</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>10</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>4500</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>3</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>10</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10">
         <v>23</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>4500</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>12</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>24</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>4500</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>22</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>2</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>5500</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <v>-1</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>3</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="26">
         <v>18</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>0</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>8000</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>-1</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>3</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>0</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <v>8000</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>-1</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>3</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>0</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <v>8000</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>-1</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>0</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>500</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>-1</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="19">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>28</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>500</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="21">
-        <v>1</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="C28" s="21">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22">
         <v>6</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>28</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>500</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>-1</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>2</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>0</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>2500</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="24">
         <v>4</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>-1</v>
       </c>
     </row>
@@ -3581,526 +3617,526 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>21</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>23</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>16</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>200</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>2</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>48</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>201</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>52</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>202</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>2</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>54</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>203</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>2</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>49</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>204</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>2</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>61</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>300</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>87</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>301</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>92</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>302</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>74</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>401</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>4</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>152</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>402</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>4</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>165</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>403</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>4</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>135</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4154,236 +4190,236 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1000</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>88</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>1100</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>36</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>1101</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>2</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>22</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>1102</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>21</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="28" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4426,155 +4462,155 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4618,188 +4654,188 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>100</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>101</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>201</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>202</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4852,843 +4888,843 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>40</v>
       </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>15</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
         <v>20</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>40</v>
       </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>15</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
         <v>15</v>
       </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
         <v>25</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>15</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>25</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
         <v>20</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>25</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>15</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>15</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>15</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>35</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="4">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>15</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>35</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
         <v>15</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
         <v>20</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
         <v>30</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>30</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>30</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
         <v>20</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>20</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>10</v>
-      </c>
-      <c r="G14" s="35">
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="34">
         <v>20</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>30</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
         <v>20</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>30</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
         <v>20</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>30</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3">
         <v>20</v>
       </c>
-      <c r="H17" s="4">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>100</v>
       </c>
-      <c r="C18" s="5">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>30</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>20</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>101</v>
       </c>
-      <c r="C19" s="5">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="5">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
         <v>20</v>
       </c>
-      <c r="G19" s="5">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="4">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4">
         <v>20</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>102</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>20</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>20</v>
       </c>
-      <c r="G20" s="5">
-        <v>10</v>
-      </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>103</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
         <v>30</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>20</v>
       </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>104</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="5">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
         <v>30</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>20</v>
       </c>
-      <c r="H22" s="5">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>105</v>
       </c>
-      <c r="C23" s="5">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="5">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5">
-        <v>10</v>
-      </c>
-      <c r="G23" s="5">
-        <v>10</v>
-      </c>
-      <c r="H23" s="5">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>106</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5">
-        <v>10</v>
-      </c>
-      <c r="H24" s="5">
-        <v>10</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>200</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>0</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>0</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>20</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <v>0</v>
       </c>
-      <c r="G25" s="36">
-        <v>10</v>
-      </c>
-      <c r="H25" s="36">
+      <c r="G25" s="35">
+        <v>10</v>
+      </c>
+      <c r="H25" s="35">
         <v>0</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>201</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>0</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <v>0</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>20</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <v>0</v>
       </c>
-      <c r="G26" s="36">
-        <v>10</v>
-      </c>
-      <c r="H26" s="36">
-        <v>10</v>
-      </c>
-      <c r="I26" s="28">
+      <c r="G26" s="35">
+        <v>10</v>
+      </c>
+      <c r="H26" s="35">
+        <v>10</v>
+      </c>
+      <c r="I26" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>202</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>0</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <v>0</v>
       </c>
-      <c r="E27" s="36">
-        <v>10</v>
-      </c>
-      <c r="F27" s="36">
+      <c r="E27" s="35">
+        <v>10</v>
+      </c>
+      <c r="F27" s="35">
         <v>20</v>
       </c>
-      <c r="G27" s="36">
-        <v>10</v>
-      </c>
-      <c r="H27" s="36">
-        <v>10</v>
-      </c>
-      <c r="I27" s="28">
+      <c r="G27" s="35">
+        <v>10</v>
+      </c>
+      <c r="H27" s="35">
+        <v>10</v>
+      </c>
+      <c r="I27" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>203</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>0</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <v>0</v>
       </c>
-      <c r="E28" s="36">
-        <v>10</v>
-      </c>
-      <c r="F28" s="36">
+      <c r="E28" s="35">
+        <v>10</v>
+      </c>
+      <c r="F28" s="35">
         <v>20</v>
       </c>
-      <c r="G28" s="36">
-        <v>10</v>
-      </c>
-      <c r="H28" s="36">
-        <v>10</v>
-      </c>
-      <c r="I28" s="28">
+      <c r="G28" s="35">
+        <v>10</v>
+      </c>
+      <c r="H28" s="35">
+        <v>10</v>
+      </c>
+      <c r="I28" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="33">
         <v>301</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>0</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="36">
         <v>20</v>
       </c>
-      <c r="F29" s="37">
-        <v>10</v>
-      </c>
-      <c r="G29" s="37">
-        <v>10</v>
-      </c>
-      <c r="H29" s="37">
-        <v>10</v>
-      </c>
-      <c r="I29" s="34">
+      <c r="F29" s="36">
+        <v>10</v>
+      </c>
+      <c r="G29" s="36">
+        <v>10</v>
+      </c>
+      <c r="H29" s="36">
+        <v>10</v>
+      </c>
+      <c r="I29" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>999</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>40</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>30</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>5</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>5</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>5</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>5</v>
       </c>
     </row>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B454CB8-34CD-4912-A808-3073589FAB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE46BE-66E2-461D-ACF9-F14CED1BEF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="2180" windowWidth="18520" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="子弹设计" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="336">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蹩脚的魔术师帽子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>效果描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,18 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城镇通行许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁新区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许你进入城镇中某些被封锁的区域。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法课程笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,14 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被遗忘的封印符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾用于封印某种强大力量的符文，依然残存微弱魔力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Letter_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,15 +617,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_Item_Licence_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_Item_Note_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Seal_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1408,6 +1376,10 @@
   </si>
   <si>
     <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹩脚魔术师的帽子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1993,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2016,10 +1988,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2036,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2062,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
@@ -2088,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -2114,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2140,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -2166,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -2192,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2218,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -2244,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D10" s="3">
         <v>5</v>
@@ -2262,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2273,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2288,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2299,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -2314,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2325,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -2340,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2424,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3572,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3598,66 +3570,66 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>335</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E3" s="3">
         <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -3666,477 +3638,467 @@
     </row>
     <row r="4" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E4" s="3">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="3">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="A5" s="4">
+        <v>163</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="4">
+        <v>87</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>285</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>129</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="3">
-        <v>21</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="28">
+        <v>48</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E8" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E9" s="3">
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>123</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="4">
+        <v>74</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>117</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="E11" s="28">
+        <v>52</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>99</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="27">
+        <v>135</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>76</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="3">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
-        <v>200</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="28">
-        <v>2</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="28">
-        <v>48</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
-        <v>201</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="28">
-        <v>2</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="28">
-        <v>52</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
-        <v>202</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="28">
-        <v>2</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="28">
-        <v>54</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="28"/>
+      <c r="F14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C15" s="28">
         <v>2</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E15" s="28">
         <v>49</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
-        <v>204</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="27">
+        <v>74</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="27">
+        <v>4</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="27">
+        <v>165</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28">
+        <v>38</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="28">
+        <v>61</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>36</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="28">
+        <v>54</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="3">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="28">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="28">
-        <v>61</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>300</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="4">
-        <v>87</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>301</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="4">
-        <v>92</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>302</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E19" s="4">
-        <v>74</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>401</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="27">
-        <v>4</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="E20" s="27">
-        <v>152</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="27"/>
+      <c r="G20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
-        <v>402</v>
+        <v>15</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C21" s="27">
         <v>4</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E21" s="27">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
-        <v>403</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="27">
-        <v>4</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="27">
-        <v>135</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="A22" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="4">
+        <v>92</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4147,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4171,13 +4133,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>24</v>
@@ -4186,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4194,25 +4156,25 @@
         <v>1000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="3">
         <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4220,48 +4182,48 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="3">
         <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>139</v>
@@ -4269,158 +4231,106 @@
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="3">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="A6" s="28">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="28">
+        <v>36</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>146</v>
       </c>
+      <c r="H6" s="28" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="3">
-        <v>88</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>146</v>
+      <c r="A7" s="28">
+        <v>1101</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="28">
+        <v>22</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C8" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F8" s="28">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>1101</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="28">
-        <v>2</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="28">
-        <v>22</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>1102</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="28">
-        <v>3</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="28">
-        <v>21</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4452,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,16 +4376,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>312</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4483,16 +4393,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4500,16 +4410,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4517,16 +4427,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4534,16 +4444,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4551,16 +4461,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4568,16 +4478,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4585,16 +4495,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4602,16 +4512,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4647,10 +4557,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4658,16 +4568,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4675,16 +4585,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4692,16 +4602,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4709,16 +4619,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4726,16 +4636,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4743,16 +4653,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4760,16 +4670,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4777,16 +4687,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4794,16 +4704,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4811,16 +4721,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4860,36 +4770,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -4918,7 +4828,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -4947,7 +4857,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -4976,7 +4886,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -5005,7 +4915,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -5034,7 +4944,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -5063,7 +4973,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -5092,7 +5002,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -5121,7 +5031,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -5150,7 +5060,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -5179,7 +5089,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -5208,7 +5118,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -5237,7 +5147,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -5266,7 +5176,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
@@ -5295,7 +5205,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
@@ -5324,7 +5234,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -5353,7 +5263,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B18" s="4">
         <v>100</v>
@@ -5382,7 +5292,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B19" s="4">
         <v>101</v>
@@ -5411,7 +5321,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B20" s="4">
         <v>102</v>
@@ -5440,7 +5350,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B21" s="4">
         <v>103</v>
@@ -5469,7 +5379,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B22" s="4">
         <v>104</v>
@@ -5498,7 +5408,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B23" s="4">
         <v>105</v>
@@ -5527,7 +5437,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B24" s="4">
         <v>106</v>
@@ -5556,7 +5466,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B25" s="27">
         <v>200</v>
@@ -5585,7 +5495,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B26" s="27">
         <v>201</v>
@@ -5614,7 +5524,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B27" s="27">
         <v>202</v>
@@ -5643,7 +5553,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B28" s="27">
         <v>203</v>
@@ -5672,7 +5582,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B29" s="33">
         <v>301</v>
@@ -5701,7 +5611,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B30" s="3">
         <v>999</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE46BE-66E2-461D-ACF9-F14CED1BEF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0B8AC-6094-494B-8A87-E43C58219921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="2180" windowWidth="18520" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1530" windowWidth="32080" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="子弹设计" sheetId="1" r:id="rId1"/>
@@ -549,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一封署名为“教授”的信件，上面写着：“你准备好接受真正的试炼了吗？”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔法学院初级学徒的徽章，象征着你的身份。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部分 NPC 好感 / 特定对话开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	用潦草字迹写满了“变形术”与“时间延展”的内容，看不懂，却难以丢弃。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁新技能/部分小游戏剧情触发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教授亲自盖章的特训许可，允许你挑战“魔法塔的隐藏层”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解锁挑战/Boss副本入口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,553 +817,567 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“在旧塔楼的残墙中常有零星碎片，表面光洁如镜，能映出未成形的咒语。”
-据说黑曜石里藏着未被书写的魔法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“它不发光，却能点燃脑中曾经遗忘的知识。大多数人会在拿起它的瞬间想起一个没学会的咒语。”
+    <t>T_Item_BookPaper_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_QuillPen_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_BadBook_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Scarf_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Blindfold_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Book_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Ring_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_MagicWand_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Oracle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Chain_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Mithril_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Item_Crystal_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷乱咒印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时子弹顺序打乱，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力残毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒术疲劳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹宝石效果-1，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二颗子弹伤害-1，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力短路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹穿透失效，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔流逆涌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最后一颗子弹伤害-2，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒语打结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的全部子弹伤害-1，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你无法发射第四颗子弹，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒式卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三颗子弹无法触发宝石效果，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏斜射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透失效，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共鸣屏障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振失效，持续一场战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CandleGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lantern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WallHole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiscCabinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenPile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheepSkull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookPile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookShelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pottery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebuffChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RareLoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyChance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时，你的子弹的顺序会被随机打乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，你的第1~3颗子弹中随机一颗获得穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第一颗子弹伤害#Red(-1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第二颗子弹无视敌人的一层护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每进入一个新房间：50%得#Yellow(4)#金币，50%失#Yellow(2)#金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的最后一颗子弹本轮宝石全部失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若一颗子弹被护盾挡住，下一颗子弹获得穿透#Blue(+1)# 伤害#Red(+2)#，仅生效一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹伤害#Red(+5)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的信件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏黏团子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜噗噗拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙疼丸子冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷咚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	硬崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷脸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	冻霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电球球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啪子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧嘟嘟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_Bullet04_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalInfusionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冰火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对后一格单位造成 min(冰,火) x 2的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坍缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前敌人造成(火 + 火 + 冰) x 2额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前单位造成额外 (雷 + 火) 的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外造成 min(冰 , 雷)点全体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对当前和后一格单位造成(冰 + 冰 +火)的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冰雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹随机命中目标，伤害为：子弹伤害+(冰+冰+雷)。穿透转化为 + 命中次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷涡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆回响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机进行5次伤害，同一个目标最多命中次数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雷雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机进行一次高额伤害，伤害为：(火+雷+雷) x 2 ，50%概率暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火火雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火雷雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对全体造成(火+火+雷)点额外伤害，如果有单位被摧毁，则重复触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superconduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CryoExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EchoingThunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderburst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlazingTrail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹩脚魔术师的帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试从没及格，但徽章从未掉色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	涂鸦比公式多，某页还夹着半根火腿肠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖章歪了三次，据说咒语是临时编的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“浓缩的魔力碎片，据说可稳定地为法术提供支撑。”
 ——常见于禁术书页的压纸石。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“据说能导通最古老的符文回路。也是唯一一种能同时承载力量与意志的材料。”
-多用于塔尖、魔阵中枢、老教授的假牙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_BookPaper_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_QuillPen_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_BadBook_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Scarf_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Blindfold_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Book_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Ring_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_MagicWand_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Oracle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Chain_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Mithril_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Item_Crystal_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷乱咒印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开火时子弹顺序打乱，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力残毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咒术疲劳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一颗子弹宝石效果-1，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二颗子弹伤害-1，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力短路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一颗子弹穿透失效，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脆弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔流逆涌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你最后一颗子弹伤害-2，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咒语打结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的全部子弹伤害-1，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你无法发射第四颗子弹，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咒式卡顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三颗子弹无法触发宝石效果，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏斜射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透失效，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共鸣屏障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共振失效，持续一场战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Candle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bucket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiscGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CandleGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lantern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WallHole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiscCabinet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodenPile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SheepSkull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BookPile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BookShelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrystalBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pottery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Picture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffChance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebuffChance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalLoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RareLoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyChance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debuff</t>
-  </si>
-  <si>
-    <t>Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开火时，你的子弹的顺序会被随机打乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时，你的第1~3颗子弹中随机一颗获得穿透#Blue(+1)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的第一颗子弹伤害#Red(-1)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的第二颗子弹无视敌人的一层护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每进入一个新房间：50%得#Yellow(4)#金币，50%失#Yellow(2)#金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的最后一颗子弹本轮宝石全部失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若一颗子弹被护盾挡住，下一颗子弹获得穿透#Blue(+1)# 伤害#Red(+2)#，仅生效一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一颗子弹伤害#Red(+5)#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的信件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黏黏团子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑曜噗噗拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牙疼丸子冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷咚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	硬崽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷脸子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	冻霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电球球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啪子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧嘟嘟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FX_Bullet04_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementalInfusionValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冰火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对后一格单位造成 min(冰,火) x 2的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坍缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迁跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对当前敌人造成(火 + 火 + 冰) x 2额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对当前单位造成额外 (雷 + 火) 的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外造成 min(冰 , 雷)点全体伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对当前和后一格单位造成(冰 + 冰 +火)的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火火冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冰雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹随机命中目标，伤害为：子弹伤害+(冰+冰+雷)。穿透转化为 + 命中次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷涡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆回响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机进行5次伤害，同一个目标最多命中次数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雷雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机进行一次高额伤害，伤害为：(火+雷+雷) x 2 ，50%概率暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火火雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火雷雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对全体造成(火+火+雷)点额外伤害，如果有单位被摧毁，则重复触发。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Superconduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CryoExplosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EchoingThunder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunderburst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlazingTrail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹩脚魔术师的帽子</t>
+    <t>“据说每块都有微弱的低语声，但没人愿意确认这点。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人是你，但寄件人写着‘未来的我'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种能同时承载力量与意志的珍贵材料，多用于塔尖、魔阵中枢、老教授的假牙。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1965,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1988,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2008,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -2034,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D3" s="3">
         <v>4</v>
@@ -2060,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -2086,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2112,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -2138,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -2164,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2190,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -2216,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D10" s="3">
         <v>5</v>
@@ -2234,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -2245,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2260,10 +2258,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>104</v>
       </c>
@@ -2271,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
@@ -2286,10 +2284,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>204</v>
       </c>
@@ -2297,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -2312,7 +2310,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2396,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C2260-068D-4ECC-BBDA-B9FE259B64C6}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C2911-F73F-459A-9236-91EC33027709}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2681,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1878A181-2C9D-46CE-9CE9-9E9CAD794D55}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3546,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3579,13 +3577,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3593,19 +3591,19 @@
         <v>198</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3">
         <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>106</v>
@@ -3623,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E3" s="3">
         <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -3641,25 +3639,25 @@
         <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3673,13 +3671,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E5" s="4">
         <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>109</v>
@@ -3697,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3">
         <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>111</v>
@@ -3721,13 +3719,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E7" s="28">
         <v>48</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>125</v>
@@ -3745,13 +3743,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3">
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>115</v>
@@ -3763,25 +3761,25 @@
         <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9" s="3">
         <v>15</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3789,22 +3787,22 @@
         <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E10" s="4">
         <v>74</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -3819,13 +3817,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E11" s="28">
         <v>52</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>113</v>
@@ -3837,25 +3835,25 @@
         <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,22 +3861,22 @@
         <v>99</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="27">
         <v>4</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E13" s="27">
         <v>135</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H13" s="27"/>
     </row>
@@ -3887,25 +3885,25 @@
         <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E14" s="3">
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,22 +3911,22 @@
         <v>75</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="28">
         <v>2</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E15" s="28">
         <v>49</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H15" s="28"/>
     </row>
@@ -3943,13 +3941,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E16" s="27">
         <v>165</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>124</v>
@@ -3961,22 +3959,22 @@
         <v>38</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C17" s="28">
         <v>2</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E17" s="28">
         <v>61</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H17" s="28"/>
     </row>
@@ -3991,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E18" s="3">
         <v>21</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>120</v>
@@ -4009,22 +4007,22 @@
         <v>36</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="28">
         <v>2</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E19" s="28">
         <v>54</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H19" s="28"/>
     </row>
@@ -4039,13 +4037,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E20" s="3">
         <v>23</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>122</v>
@@ -4063,13 +4061,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E21" s="27">
         <v>152</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>118</v>
@@ -4081,22 +4079,22 @@
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E22" s="4">
         <v>92</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -4111,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E4479-36FF-4C6C-B131-2A3F05F77EB2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4136,7 +4134,7 @@
         <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>127</v>
@@ -4148,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4156,25 +4154,25 @@
         <v>1000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="F2" s="3">
         <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4182,25 +4180,25 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="F3" s="3">
         <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4208,25 +4206,25 @@
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="F4" s="3">
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4234,25 +4232,25 @@
         <v>1004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="F5" s="3">
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4260,25 +4258,25 @@
         <v>1100</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="F6" s="28">
         <v>36</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4286,25 +4284,25 @@
         <v>1101</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" s="28">
         <v>2</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="F7" s="28">
         <v>22</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4312,25 +4310,25 @@
         <v>1102</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="28">
         <v>3</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="F8" s="28">
         <v>21</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4362,13 +4360,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4376,16 +4374,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4393,16 +4391,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4410,16 +4408,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4427,16 +4425,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4444,16 +4442,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4461,16 +4459,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>313</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4478,16 +4476,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4495,16 +4493,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -4512,16 +4510,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>127</v>
@@ -4568,16 +4566,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4585,16 +4583,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4602,16 +4600,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4619,16 +4617,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4636,16 +4634,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4653,16 +4651,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4670,16 +4668,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4687,16 +4685,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4704,16 +4702,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4721,16 +4719,16 @@
         <v>202</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4757,7 +4755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A90F9-F806-404B-9EF4-9CD562BD8EFD}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4770,36 +4768,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -4828,7 +4826,7 @@
     </row>
     <row r="3" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -4857,7 +4855,7 @@
     </row>
     <row r="4" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -4886,7 +4884,7 @@
     </row>
     <row r="5" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -4915,7 +4913,7 @@
     </row>
     <row r="6" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
@@ -4944,7 +4942,7 @@
     </row>
     <row r="7" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -4973,7 +4971,7 @@
     </row>
     <row r="8" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
@@ -5002,7 +5000,7 @@
     </row>
     <row r="9" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3">
         <v>8</v>
@@ -5031,7 +5029,7 @@
     </row>
     <row r="10" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B10" s="3">
         <v>9</v>
@@ -5060,7 +5058,7 @@
     </row>
     <row r="11" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -5089,7 +5087,7 @@
     </row>
     <row r="12" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -5118,7 +5116,7 @@
     </row>
     <row r="13" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
@@ -5147,7 +5145,7 @@
     </row>
     <row r="14" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
@@ -5176,7 +5174,7 @@
     </row>
     <row r="15" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B15" s="3">
         <v>14</v>
@@ -5205,7 +5203,7 @@
     </row>
     <row r="16" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
@@ -5234,7 +5232,7 @@
     </row>
     <row r="17" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
@@ -5263,7 +5261,7 @@
     </row>
     <row r="18" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B18" s="4">
         <v>100</v>
@@ -5292,7 +5290,7 @@
     </row>
     <row r="19" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B19" s="4">
         <v>101</v>
@@ -5321,7 +5319,7 @@
     </row>
     <row r="20" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B20" s="4">
         <v>102</v>
@@ -5350,7 +5348,7 @@
     </row>
     <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B21" s="4">
         <v>103</v>
@@ -5379,7 +5377,7 @@
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B22" s="4">
         <v>104</v>
@@ -5408,7 +5406,7 @@
     </row>
     <row r="23" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B23" s="4">
         <v>105</v>
@@ -5437,7 +5435,7 @@
     </row>
     <row r="24" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B24" s="4">
         <v>106</v>
@@ -5466,7 +5464,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B25" s="27">
         <v>200</v>
@@ -5495,7 +5493,7 @@
     </row>
     <row r="26" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B26" s="27">
         <v>201</v>
@@ -5524,7 +5522,7 @@
     </row>
     <row r="27" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B27" s="27">
         <v>202</v>
@@ -5553,7 +5551,7 @@
     </row>
     <row r="28" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B28" s="27">
         <v>203</v>
@@ -5582,7 +5580,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B29" s="33">
         <v>301</v>
@@ -5611,7 +5609,7 @@
     </row>
     <row r="30" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B30" s="3">
         <v>999</v>

--- a/Boom/Excel/CommonDesign.xlsx
+++ b/Boom/Excel/CommonDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0B8AC-6094-494B-8A87-E43C58219921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE3B40-934A-477A-AA86-470F9A388CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1530" windowWidth="32080" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10970" yWindow="980" windowWidth="23850" windowHeight="18530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="子弹设计" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="402">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1378,6 +1378,270 @@
   </si>
   <si>
     <t>一种能同时承载力量与意志的珍贵材料，多用于塔尖、魔阵中枢、老教授的假牙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每拥有#Yellow(5)#金币，随机一颗子弹伤害#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱的吸血牙套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击败一个敌人，50%概率增加一颗心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧焦的厨师帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素子弹元素值#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半融的霜火徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冠电鳗的标本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”超导“，”迁跃“，”雷涡“的伤害#Red(+2)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“据说它曾被用于烤龙排，但烤的是自己。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“牙不太行，但咬一口还是能补点气儿。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“被冻住了，但还是会偶尔放个电。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镀金的开火许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“拥有它，你就可以合法开火。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素憋气装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“冰火共存是一门艺术，失控是它的必修课。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“目前没有任何元素能在它面前体面地呼吸。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷元素子弹元素值#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放电太快的发条鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“发条上紧以后，不管有没有敌人，它都会呲啦呲啦放电。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰元素子弹元素值#Red(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌徒的骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"塔里的亡灵们总说，与其计算概率，不如相信骰子上的牙印。"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火时，有33%概率所有子弹伤害#Red(-2)#，33%概率随机3颗子弹伤害#Red(+3)#，33%概率所有元素反应伤害×2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻住的小雪球罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“看起来没什么用，但靠近它就会打寒颤。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“据说它不止钉住了冰场，也钉死了气氛。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷场钉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”坍缩“，暴击率提高30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塌塌果冻核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“晃起来软软的，炸起来大大的。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”雷涡“，同目标最高命中次数+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠叠电拍手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“没人知道它为什么那么高兴，但它确实打得很起劲。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”流火“，额外伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“理论上是用来呼救的，实际上更多时候是烧别人。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚烫信号棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的第三颗子弹，伤害宝石转为增加元素值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷元素场的元素值，将自动等于当前最高雷元素值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啪啦复制瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“装一份，抖一抖，全场都有了。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”我想转去反应系。”——这张泛黄的表格常被贴在某些焦黑子弹的背后，写着潦草的理由与一个圆滚滚的签名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转学申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应助燃胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“适量使用可增强反应，过量使用可重新装修实验室。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素反应时的元素值增加#Red(1～3)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振会同时增幅元素值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟风元素的八音盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它自己从不响，但别人一响，它就忍不住加一段。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每贯穿一个敌人，伤害随机增加#Red(0～3)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿心口信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它只负责传话，不负责解释。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶玛勒的律环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素场不会被消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“她从未结束一次反应，只是换了一种继续。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它不关心你打了谁，它只关心响没响。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叮叮收银盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素反应后，随机保留一个元素场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”爆炸“的元素值增加#Red(1～3)#，"霜爆"的元素值增加#Red(4～6)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次触发元素反应，获得#Yellow(2～4)#枚金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一颗子弹仍未消灭敌人，则随机回溯一枚子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟响的怀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你开完火，它才开始转针。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每多一个元素场，子弹#Red(+1)#点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的厨刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“它已经不锋利了，但脾气还在。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰元素场不会被消耗，但触发反应时冰元素值随机减#Red(1～3)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1963,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3542,10 +3806,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DDE51-F010-4AA1-856A-CE92135C3382}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4097,6 +4361,404 @@
         <v>201</v>
       </c>
       <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="28">
+        <v>2</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="28">
+        <v>2</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="28">
+        <v>2</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="28">
+        <v>2</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="28">
+        <v>2</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="28">
+        <v>2</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="27">
+        <v>4</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" s="27">
+        <v>4</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
